--- a/ASHRAE901_ApartmentHighRise_STD2019_AtlantaTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_AtlantaTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2012.34</t>
+          <t>2563.72</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1300.67</t>
+          <t>2568.04</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>415.16</t>
+          <t>555.15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1112.54</t>
+          <t>2219.85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>949.95</t>
+          <t>1826.24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>945.12</t>
+          <t>1818.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1421.04</t>
+          <t>1848.60</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1417.01</t>
+          <t>1842.19</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2468.54</t>
+          <t>3072.73</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1589.12</t>
+          <t>3057.47</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2062.78</t>
+          <t>2600.48</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1312.95</t>
+          <t>2544.18</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1082.81</t>
+          <t>2066.50</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1076.70</t>
+          <t>2057.04</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1610.25</t>
+          <t>2063.42</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1604.11</t>
+          <t>2055.68</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2476.36</t>
+          <t>3077.20</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1599.50</t>
+          <t>3080.20</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2065.16</t>
+          <t>2599.16</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1324.67</t>
+          <t>2566.36</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1086.43</t>
+          <t>2079.89</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1080.37</t>
+          <t>2068.52</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1615.95</t>
+          <t>2065.49</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1609.31</t>
+          <t>2058.30</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2494.49</t>
+          <t>3097.63</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>1600.91</t>
+          <t>3112.46</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2087.39</t>
+          <t>2618.02</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1328.92</t>
+          <t>2591.68</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1087.17</t>
+          <t>2093.65</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1081.13</t>
+          <t>2083.48</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>1626.19</t>
+          <t>2078.21</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1619.50</t>
+          <t>2069.84</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>2506.23</t>
+          <t>3111.90</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>1597.29</t>
+          <t>3131.34</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>2104.33</t>
+          <t>2638.69</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>1328.43</t>
+          <t>2613.19</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1084.75</t>
+          <t>2110.62</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>1078.73</t>
+          <t>2099.39</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>1634.97</t>
+          <t>2088.61</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>1628.27</t>
+          <t>2080.37</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>2516.02</t>
+          <t>3120.84</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>1593.13</t>
+          <t>3140.80</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>2118.46</t>
+          <t>2653.73</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>1327.10</t>
+          <t>2639.21</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>1081.94</t>
+          <t>2120.70</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>1075.97</t>
+          <t>2111.73</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>1616.47</t>
+          <t>2099.60</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>1609.79</t>
+          <t>2091.28</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>2489.48</t>
+          <t>3133.86</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>1589.32</t>
+          <t>3146.33</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>2129.41</t>
+          <t>2665.97</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1325.86</t>
+          <t>2659.09</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>1079.53</t>
+          <t>2135.78</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>1073.61</t>
+          <t>2126.77</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>1622.54</t>
+          <t>2116.68</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>1615.92</t>
+          <t>2107.15</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>2501.85</t>
+          <t>3152.20</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>1591.54</t>
+          <t>3163.65</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>2143.64</t>
+          <t>2683.29</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>1330.11</t>
+          <t>2685.28</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>1082.40</t>
+          <t>2154.99</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>1076.54</t>
+          <t>2146.18</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>1634.77</t>
+          <t>2133.28</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>1628.33</t>
+          <t>2125.67</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>2582.15</t>
+          <t>3244.19</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>1659.61</t>
+          <t>3270.80</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>2198.85</t>
+          <t>2790.66</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>1389.53</t>
+          <t>2797.77</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>1135.27</t>
+          <t>2259.94</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>1129.03</t>
+          <t>2251.14</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>1710.45</t>
+          <t>2206.62</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>1704.53</t>
+          <t>2197.93</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>3362.87</t>
+          <t>3997.47</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>1453.61</t>
+          <t>3825.57</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>3137.33</t>
+          <t>3406.64</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>1604.05</t>
+          <t>3232.32</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>1365.61</t>
+          <t>2662.80</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>1346.93</t>
+          <t>2643.31</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>2607.95</t>
+          <t>2756.18</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>2606.20</t>
+          <t>2758.78</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>253.20</t>
+          <t>2568.82</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>106.61</t>
+          <t>2593.64</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>306.47</t>
+          <t>606.65</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>106.02</t>
+          <t>2256.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>116.15</t>
+          <t>1897.66</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>115.97</t>
+          <t>1890.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>620.41</t>
+          <t>1867.54</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>562.59</t>
+          <t>1864.06</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1904.86</t>
+          <t>3041.42</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>112.35</t>
+          <t>3071.45</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1361.21</t>
+          <t>2640.04</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>111.89</t>
+          <t>2568.03</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>266.73</t>
+          <t>2113.76</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>267.48</t>
+          <t>2104.22</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1523.58</t>
+          <t>2058.52</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1514.24</t>
+          <t>2054.98</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2155.87</t>
+          <t>3053.59</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>160.04</t>
+          <t>3085.70</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1360.64</t>
+          <t>2636.71</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>143.01</t>
+          <t>2599.33</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>400.02</t>
+          <t>2122.02</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>400.03</t>
+          <t>2110.01</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1533.43</t>
+          <t>2055.85</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>1523.66</t>
+          <t>2051.69</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2043.42</t>
+          <t>3078.44</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>181.80</t>
+          <t>3102.95</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>1280.66</t>
+          <t>2642.90</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>150.99</t>
+          <t>2630.18</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>382.24</t>
+          <t>2124.42</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>382.08</t>
+          <t>2115.27</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1541.60</t>
+          <t>2061.90</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1531.93</t>
+          <t>2055.20</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>1807.04</t>
+          <t>3101.69</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>116.04</t>
+          <t>3139.34</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>1300.22</t>
+          <t>2653.28</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>113.19</t>
+          <t>2646.45</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>379.18</t>
+          <t>2133.37</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>379.00</t>
+          <t>2137.03</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>1546.01</t>
+          <t>2063.31</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>1536.51</t>
+          <t>2055.75</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>1521.34</t>
+          <t>3122.50</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>112.56</t>
+          <t>3148.51</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>1003.82</t>
+          <t>2656.89</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>112.13</t>
+          <t>2647.19</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>367.32</t>
+          <t>2155.35</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>367.12</t>
+          <t>2146.81</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>1547.85</t>
+          <t>2067.40</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>1517.29</t>
+          <t>2061.52</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>1202.98</t>
+          <t>3147.11</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>111.31</t>
+          <t>3148.43</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>381.16</t>
+          <t>2665.91</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>110.93</t>
+          <t>2660.39</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>350.20</t>
+          <t>2165.12</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>349.97</t>
+          <t>2157.41</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>1311.36</t>
+          <t>2077.15</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>1220.59</t>
+          <t>2070.65</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>848.01</t>
+          <t>3183.38</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>109.68</t>
+          <t>3171.12</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>323.19</t>
+          <t>2675.54</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>109.39</t>
+          <t>2679.91</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>317.20</t>
+          <t>2180.14</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>316.97</t>
+          <t>2172.56</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>981.57</t>
+          <t>2089.94</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>898.19</t>
+          <t>2082.68</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>1662.73</t>
+          <t>3292.86</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>107.25</t>
+          <t>3303.34</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>1404.24</t>
+          <t>2768.47</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>107.11</t>
+          <t>2790.10</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>306.88</t>
+          <t>2268.32</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>307.15</t>
+          <t>2260.66</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>978.00</t>
+          <t>2174.02</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>1009.79</t>
+          <t>2166.01</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>1658.64</t>
+          <t>4113.15</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>332.54</t>
+          <t>3907.72</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>1704.75</t>
+          <t>3397.20</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>251.85</t>
+          <t>3246.76</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>1318.73</t>
+          <t>2665.80</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>1308.36</t>
+          <t>2645.97</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>1297.01</t>
+          <t>2737.97</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>1302.47</t>
+          <t>2738.23</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1618.71</t>
+          <t>2570.93</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1609.94</t>
+          <t>2635.29</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>306.98</t>
+          <t>426.63</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1335.76</t>
+          <t>2273.86</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1180.49</t>
+          <t>1907.11</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1176.59</t>
+          <t>1900.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1133.39</t>
+          <t>1844.46</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1129.28</t>
+          <t>1845.00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2112.88</t>
+          <t>3071.88</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2098.13</t>
+          <t>3144.22</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1791.03</t>
+          <t>2602.71</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1672.66</t>
+          <t>2629.97</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1331.43</t>
+          <t>2120.70</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1326.55</t>
+          <t>2112.46</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1314.99</t>
+          <t>2037.29</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1311.01</t>
+          <t>2034.96</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2136.24</t>
+          <t>3078.30</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2129.32</t>
+          <t>3161.46</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1786.95</t>
+          <t>2614.33</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1698.98</t>
+          <t>2636.92</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1339.12</t>
+          <t>2148.59</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>1334.11</t>
+          <t>2117.37</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1361.30</t>
+          <t>2056.96</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1360.90</t>
+          <t>2047.05</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2148.50</t>
+          <t>3094.98</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2143.46</t>
+          <t>3181.69</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>1785.69</t>
+          <t>2619.05</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1715.90</t>
+          <t>2656.63</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>1346.58</t>
+          <t>2177.34</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>1341.62</t>
+          <t>2168.42</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>1372.18</t>
+          <t>2061.59</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1366.75</t>
+          <t>2036.78</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>2141.79</t>
+          <t>3103.97</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>2147.11</t>
+          <t>3200.17</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>1784.55</t>
+          <t>2628.30</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>1724.99</t>
+          <t>2681.75</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1350.35</t>
+          <t>2147.31</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>1345.40</t>
+          <t>2136.31</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>1335.82</t>
+          <t>2070.68</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>1353.48</t>
+          <t>2062.49</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>2130.94</t>
+          <t>3111.44</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>2146.08</t>
+          <t>3219.63</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>1782.24</t>
+          <t>2637.13</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>1729.25</t>
+          <t>2697.51</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>1352.57</t>
+          <t>2157.07</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>1347.63</t>
+          <t>2147.23</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>1318.34</t>
+          <t>2075.04</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>1330.82</t>
+          <t>2067.46</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>2123.48</t>
+          <t>3123.79</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>2146.57</t>
+          <t>3229.85</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>1778.00</t>
+          <t>2646.85</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1738.87</t>
+          <t>2711.65</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>1355.48</t>
+          <t>2167.50</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>1350.56</t>
+          <t>2156.59</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>1314.98</t>
+          <t>2079.14</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>1311.12</t>
+          <t>2072.45</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>2131.51</t>
+          <t>3150.05</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>2159.92</t>
+          <t>3244.12</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>1788.80</t>
+          <t>2673.55</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>1755.81</t>
+          <t>2732.49</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>1364.24</t>
+          <t>2188.04</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>1359.38</t>
+          <t>2177.31</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>1325.91</t>
+          <t>2094.80</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>1322.31</t>
+          <t>2083.81</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>2229.16</t>
+          <t>3269.05</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>2271.48</t>
+          <t>3346.55</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>1858.50</t>
+          <t>2798.07</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>1859.81</t>
+          <t>2837.38</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>1418.33</t>
+          <t>2296.49</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>1417.23</t>
+          <t>2285.81</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>1415.02</t>
+          <t>2181.25</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>1417.71</t>
+          <t>2174.67</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>2894.77</t>
+          <t>4027.24</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>2889.09</t>
+          <t>3993.50</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>2504.38</t>
+          <t>3408.32</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>2304.33</t>
+          <t>3298.26</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>1862.04</t>
+          <t>2708.43</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>1848.31</t>
+          <t>2683.23</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>1968.79</t>
+          <t>2732.08</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>1972.56</t>
+          <t>2738.95</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1715.01</t>
+          <t>2492.62</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1794.37</t>
+          <t>2638.14</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>248.90</t>
+          <t>317.44</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1468.22</t>
+          <t>2284.62</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1243.60</t>
+          <t>1909.09</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1238.92</t>
+          <t>1902.41</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1207.34</t>
+          <t>1801.23</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1269.98</t>
+          <t>1845.40</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2194.71</t>
+          <t>2958.69</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2283.39</t>
+          <t>3100.36</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2015.72</t>
+          <t>2564.59</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1812.03</t>
+          <t>2618.42</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1455.57</t>
+          <t>2124.28</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1449.64</t>
+          <t>2116.27</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1456.67</t>
+          <t>1977.40</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1473.45</t>
+          <t>1974.70</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2196.79</t>
+          <t>2981.24</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2286.97</t>
+          <t>3104.80</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1848.94</t>
+          <t>2563.34</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1838.83</t>
+          <t>2620.96</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1466.38</t>
+          <t>2130.46</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1462.99</t>
+          <t>2122.48</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1475.82</t>
+          <t>1977.39</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1473.70</t>
+          <t>1968.21</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2266.00</t>
+          <t>2986.27</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2228.76</t>
+          <t>3118.16</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>1856.87</t>
+          <t>2582.68</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1896.19</t>
+          <t>2638.63</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>1539.61</t>
+          <t>2133.14</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>1533.84</t>
+          <t>2125.41</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>1481.17</t>
+          <t>1985.34</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1480.26</t>
+          <t>1977.15</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>2265.00</t>
+          <t>2992.18</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>2228.95</t>
+          <t>3130.16</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>1858.40</t>
+          <t>2599.57</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>1895.70</t>
+          <t>2660.50</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1541.48</t>
+          <t>2142.06</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>1535.62</t>
+          <t>2134.42</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>1480.20</t>
+          <t>2010.07</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>1484.74</t>
+          <t>2002.51</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>2260.30</t>
+          <t>3003.88</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>2225.85</t>
+          <t>3141.21</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>1859.40</t>
+          <t>2616.38</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>1890.75</t>
+          <t>2679.41</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>1541.93</t>
+          <t>2142.12</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>1535.97</t>
+          <t>2134.72</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>1481.23</t>
+          <t>2019.72</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>1481.95</t>
+          <t>2012.12</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>2256.98</t>
+          <t>3021.28</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>2224.45</t>
+          <t>3152.20</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>1861.71</t>
+          <t>2632.27</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1887.85</t>
+          <t>2697.01</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>1543.57</t>
+          <t>2140.32</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>1537.53</t>
+          <t>2132.50</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>1479.76</t>
+          <t>2031.92</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>1481.08</t>
+          <t>2024.33</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>2215.75</t>
+          <t>3031.55</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>2226.02</t>
+          <t>3168.94</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>1876.85</t>
+          <t>2653.19</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>1849.69</t>
+          <t>2720.35</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>1553.53</t>
+          <t>2160.54</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>1547.65</t>
+          <t>2152.84</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>1482.01</t>
+          <t>2047.09</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>1483.08</t>
+          <t>2039.55</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>2269.48</t>
+          <t>3126.37</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>2279.91</t>
+          <t>3266.31</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>1929.79</t>
+          <t>2769.37</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>1906.63</t>
+          <t>2819.85</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>1623.70</t>
+          <t>2262.53</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>1618.14</t>
+          <t>2255.35</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>1540.85</t>
+          <t>2123.41</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>1538.47</t>
+          <t>2115.90</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>2748.60</t>
+          <t>3727.38</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>2802.46</t>
+          <t>3868.91</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>2350.56</t>
+          <t>3368.35</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>2260.84</t>
+          <t>3329.70</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>1866.81</t>
+          <t>2647.35</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>1854.45</t>
+          <t>2628.61</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>1881.54</t>
+          <t>2608.27</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>1872.39</t>
+          <t>2618.37</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2053.82</t>
+          <t>2465.76</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2183.56</t>
+          <t>2564.36</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>45.75</t>
+          <t>802.52</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1839.52</t>
+          <t>2296.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1540.36</t>
+          <t>1889.65</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1534.73</t>
+          <t>1884.26</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1419.74</t>
+          <t>1798.56</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1433.47</t>
+          <t>1792.49</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2526.27</t>
+          <t>2942.68</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2657.11</t>
+          <t>3061.95</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2120.37</t>
+          <t>2549.22</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2163.23</t>
+          <t>2605.19</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1732.63</t>
+          <t>2114.49</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1725.33</t>
+          <t>2106.00</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1590.88</t>
+          <t>1962.17</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1589.09</t>
+          <t>1964.21</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2525.86</t>
+          <t>2967.45</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>2654.00</t>
+          <t>3095.31</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2078.54</t>
+          <t>2547.72</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2167.61</t>
+          <t>2607.77</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>1736.60</t>
+          <t>2088.85</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1729.40</t>
+          <t>2081.25</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>1591.86</t>
+          <t>1962.27</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>1586.16</t>
+          <t>1954.63</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2531.56</t>
+          <t>2990.32</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2656.59</t>
+          <t>3117.08</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>2080.80</t>
+          <t>2565.13</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2175.08</t>
+          <t>2628.80</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>1738.53</t>
+          <t>2096.19</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>1731.35</t>
+          <t>2088.49</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>1596.19</t>
+          <t>1974.62</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1589.48</t>
+          <t>1966.86</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>2535.95</t>
+          <t>2982.15</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>2658.33</t>
+          <t>3131.25</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>2085.10</t>
+          <t>2575.58</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>2180.54</t>
+          <t>2647.66</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1739.16</t>
+          <t>2108.68</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>1731.98</t>
+          <t>2100.73</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>1599.08</t>
+          <t>1986.58</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>1591.98</t>
+          <t>1978.83</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>2505.01</t>
+          <t>2984.99</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>2622.07</t>
+          <t>3143.72</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>2068.53</t>
+          <t>2590.96</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>2174.39</t>
+          <t>2678.17</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>1720.80</t>
+          <t>2119.88</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>1713.98</t>
+          <t>2111.87</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>1585.85</t>
+          <t>1997.16</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>1579.45</t>
+          <t>1989.45</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>2508.58</t>
+          <t>3001.41</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>2628.28</t>
+          <t>3155.86</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>2075.85</t>
+          <t>2605.54</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2182.43</t>
+          <t>2702.77</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>1725.12</t>
+          <t>2130.51</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>1718.29</t>
+          <t>2122.61</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>1590.39</t>
+          <t>2010.60</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>1583.99</t>
+          <t>2002.91</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>2518.58</t>
+          <t>3022.85</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>2641.30</t>
+          <t>3174.56</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>2089.01</t>
+          <t>2625.35</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>2196.87</t>
+          <t>2732.32</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>1736.18</t>
+          <t>2149.14</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>1729.36</t>
+          <t>2140.32</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>1600.36</t>
+          <t>2027.45</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>1593.92</t>
+          <t>2019.81</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>2612.58</t>
+          <t>3112.67</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>2750.18</t>
+          <t>3271.90</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>2150.82</t>
+          <t>2731.45</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>2290.56</t>
+          <t>2852.21</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>1820.17</t>
+          <t>2244.25</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>1813.51</t>
+          <t>2236.39</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>1681.76</t>
+          <t>2109.64</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>1675.16</t>
+          <t>2102.02</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>3189.12</t>
+          <t>3734.48</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>3291.70</t>
+          <t>3821.93</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>2617.77</t>
+          <t>3251.77</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>2659.03</t>
+          <t>3320.31</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>2201.30</t>
+          <t>2656.14</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>2181.61</t>
+          <t>2637.38</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>2099.76</t>
+          <t>2545.54</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>2094.24</t>
+          <t>2545.38</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1737.71</t>
+          <t>2466.26</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1869.25</t>
+          <t>2536.48</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>275.39</t>
+          <t>831.40</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1577.64</t>
+          <t>2221.68</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1286.08</t>
+          <t>1857.70</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1280.45</t>
+          <t>1851.47</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1173.40</t>
+          <t>1772.62</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1211.54</t>
+          <t>1769.53</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2154.48</t>
+          <t>2890.98</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2303.74</t>
+          <t>3003.34</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1876.39</t>
+          <t>2494.56</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1851.15</t>
+          <t>2509.28</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1457.56</t>
+          <t>2039.79</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1450.89</t>
+          <t>2031.92</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1340.74</t>
+          <t>1954.39</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1358.86</t>
+          <t>1945.26</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2152.12</t>
+          <t>2895.55</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>2298.01</t>
+          <t>3021.63</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1734.44</t>
+          <t>2478.49</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1842.32</t>
+          <t>2522.43</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1451.61</t>
+          <t>2038.62</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1446.11</t>
+          <t>2030.83</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1351.35</t>
+          <t>1956.09</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>1356.86</t>
+          <t>1946.77</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2152.80</t>
+          <t>2928.65</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2304.43</t>
+          <t>3048.32</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>1708.11</t>
+          <t>2492.17</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>1844.63</t>
+          <t>2541.20</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>1454.87</t>
+          <t>2050.14</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>1449.40</t>
+          <t>2042.41</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>1354.57</t>
+          <t>1970.35</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1360.11</t>
+          <t>1961.21</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>2153.21</t>
+          <t>2956.09</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>2311.10</t>
+          <t>3064.71</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>1711.83</t>
+          <t>2509.37</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>1848.12</t>
+          <t>2561.92</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1458.88</t>
+          <t>2061.69</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>1453.43</t>
+          <t>2054.00</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>1352.78</t>
+          <t>1984.43</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>1360.98</t>
+          <t>1975.31</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>2154.17</t>
+          <t>2978.40</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>2317.24</t>
+          <t>3079.27</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>1718.68</t>
+          <t>2524.97</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>1851.70</t>
+          <t>2585.03</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>1462.68</t>
+          <t>2089.21</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>1457.24</t>
+          <t>2080.15</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>1352.73</t>
+          <t>1995.51</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>1357.21</t>
+          <t>1987.64</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>2155.12</t>
+          <t>2993.18</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>2322.40</t>
+          <t>3093.23</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>1725.86</t>
+          <t>2539.86</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1855.67</t>
+          <t>2595.00</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>1467.10</t>
+          <t>2098.78</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>1461.65</t>
+          <t>2089.75</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>1357.66</t>
+          <t>2009.51</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>1352.65</t>
+          <t>2001.67</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>2159.11</t>
+          <t>3013.38</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>2333.88</t>
+          <t>3112.83</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>1737.75</t>
+          <t>2560.04</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>1864.72</t>
+          <t>2622.68</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>1487.60</t>
+          <t>2115.90</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>1482.11</t>
+          <t>2106.92</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>1377.10</t>
+          <t>2027.05</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>1371.70</t>
+          <t>2019.25</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>2223.76</t>
+          <t>3103.77</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>2409.90</t>
+          <t>3214.32</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>1792.28</t>
+          <t>2665.95</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>1938.87</t>
+          <t>2737.28</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>1557.96</t>
+          <t>2207.60</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>1552.68</t>
+          <t>2198.62</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>1445.66</t>
+          <t>2111.01</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>1440.23</t>
+          <t>2103.19</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>2597.75</t>
+          <t>3579.09</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>2879.65</t>
+          <t>3680.64</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>2148.65</t>
+          <t>3160.12</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>2277.84</t>
+          <t>3131.33</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>1927.52</t>
+          <t>2568.64</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>1911.91</t>
+          <t>2550.08</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>1791.84</t>
+          <t>2551.23</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>1783.14</t>
+          <t>2551.38</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1777.18</t>
+          <t>2424.76</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1891.47</t>
+          <t>2527.76</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>374.81</t>
+          <t>1056.35</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1609.66</t>
+          <t>2230.75</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1323.50</t>
+          <t>1854.36</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1318.20</t>
+          <t>1847.94</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1208.57</t>
+          <t>1753.54</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1237.16</t>
+          <t>1752.20</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2161.04</t>
+          <t>2845.45</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2288.87</t>
+          <t>2943.48</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1907.88</t>
+          <t>2459.48</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1836.30</t>
+          <t>2507.89</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1480.12</t>
+          <t>2051.70</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1474.42</t>
+          <t>2043.75</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1365.03</t>
+          <t>1922.64</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1368.26</t>
+          <t>1908.24</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2143.05</t>
+          <t>2835.54</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2273.23</t>
+          <t>2932.73</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1764.04</t>
+          <t>2430.71</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>1825.82</t>
+          <t>2498.98</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1473.27</t>
+          <t>2037.65</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>1467.74</t>
+          <t>2029.82</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>1362.74</t>
+          <t>1914.28</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>1360.12</t>
+          <t>1906.60</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2146.88</t>
+          <t>2856.80</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2276.37</t>
+          <t>2948.46</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>1731.58</t>
+          <t>2441.83</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>1829.08</t>
+          <t>2517.58</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>1478.08</t>
+          <t>2045.39</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>1472.60</t>
+          <t>2037.62</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>1368.96</t>
+          <t>1925.24</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1364.83</t>
+          <t>1917.40</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>2152.40</t>
+          <t>2873.82</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>2281.38</t>
+          <t>2963.52</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>1729.30</t>
+          <t>2457.11</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>1833.87</t>
+          <t>2534.93</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1483.35</t>
+          <t>2055.21</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>1477.89</t>
+          <t>2047.48</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>1374.74</t>
+          <t>1936.23</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>1370.95</t>
+          <t>1928.40</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>2157.63</t>
+          <t>2888.81</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>2286.17</t>
+          <t>2976.86</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>1734.69</t>
+          <t>2470.87</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>1840.86</t>
+          <t>2550.12</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>1488.35</t>
+          <t>2064.06</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>1482.91</t>
+          <t>2056.36</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>1376.71</t>
+          <t>1946.06</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>1376.93</t>
+          <t>1938.26</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>2163.24</t>
+          <t>2903.03</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>2291.38</t>
+          <t>2989.64</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>1738.97</t>
+          <t>2484.02</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1847.91</t>
+          <t>2564.46</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>1493.49</t>
+          <t>2072.95</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>1488.07</t>
+          <t>2065.27</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>1379.25</t>
+          <t>1958.80</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>1379.10</t>
+          <t>1951.02</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>2173.78</t>
+          <t>2922.48</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>2302.71</t>
+          <t>3007.94</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>1748.97</t>
+          <t>2502.38</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>1860.66</t>
+          <t>2584.72</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>1503.66</t>
+          <t>2088.15</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>1498.23</t>
+          <t>2080.53</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>1382.37</t>
+          <t>1974.87</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>1382.19</t>
+          <t>1967.13</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>2249.52</t>
+          <t>3009.40</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>2388.30</t>
+          <t>3099.03</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>1813.58</t>
+          <t>2605.31</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>1935.41</t>
+          <t>2678.26</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>1575.31</t>
+          <t>2172.79</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>1569.81</t>
+          <t>2165.18</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>1447.07</t>
+          <t>2055.53</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>1441.54</t>
+          <t>2047.78</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>2657.54</t>
+          <t>3442.23</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>2827.16</t>
+          <t>3574.34</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>2185.89</t>
+          <t>3082.20</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>2252.06</t>
+          <t>3060.52</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>1927.50</t>
+          <t>2490.07</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>1913.05</t>
+          <t>2472.52</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>1791.56</t>
+          <t>2480.88</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>1781.32</t>
+          <t>2481.09</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1852.58</t>
+          <t>2293.40</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1792.46</t>
+          <t>2390.42</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>516.44</t>
+          <t>1209.60</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1568.87</t>
+          <t>2073.19</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1300.25</t>
+          <t>1702.07</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1295.68</t>
+          <t>1694.87</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1263.29</t>
+          <t>1606.63</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1275.16</t>
+          <t>1610.25</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2174.29</t>
+          <t>2765.50</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2097.65</t>
+          <t>2854.72</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1919.10</t>
+          <t>2359.12</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1754.90</t>
+          <t>2372.73</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1435.03</t>
+          <t>1894.18</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1434.34</t>
+          <t>1886.07</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1405.35</t>
+          <t>1775.57</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1405.17</t>
+          <t>1771.82</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2146.16</t>
+          <t>2775.42</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>2078.27</t>
+          <t>2863.99</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1856.70</t>
+          <t>2338.28</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>1738.12</t>
+          <t>2391.92</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1415.32</t>
+          <t>1893.98</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1414.76</t>
+          <t>1886.63</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1390.64</t>
+          <t>1777.65</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1387.40</t>
+          <t>1771.21</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2146.06</t>
+          <t>2808.49</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2081.00</t>
+          <t>2900.68</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>1838.62</t>
+          <t>2356.96</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>1739.48</t>
+          <t>2419.58</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>1413.58</t>
+          <t>1907.79</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1412.97</t>
+          <t>1900.37</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>1391.78</t>
+          <t>1795.68</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1387.31</t>
+          <t>1788.51</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>2149.89</t>
+          <t>2825.21</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>2086.48</t>
+          <t>2921.03</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>1840.16</t>
+          <t>2378.04</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>1744.04</t>
+          <t>2448.89</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1415.42</t>
+          <t>1916.18</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1414.67</t>
+          <t>1914.55</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>1395.20</t>
+          <t>1813.55</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>1390.50</t>
+          <t>1806.34</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>2154.06</t>
+          <t>2840.21</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>2091.85</t>
+          <t>2934.76</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>1846.66</t>
+          <t>2399.20</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>1748.49</t>
+          <t>2467.80</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>1417.62</t>
+          <t>1931.08</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>1416.87</t>
+          <t>1923.59</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>1398.72</t>
+          <t>1821.40</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>1394.01</t>
+          <t>1819.38</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>2158.68</t>
+          <t>2858.55</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>2097.36</t>
+          <t>2948.05</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>1853.82</t>
+          <t>2417.97</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1753.22</t>
+          <t>2492.94</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>1420.48</t>
+          <t>1945.76</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>1419.78</t>
+          <t>1938.34</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>1402.88</t>
+          <t>1839.52</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>1398.18</t>
+          <t>1832.82</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>2168.24</t>
+          <t>2884.19</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>2106.89</t>
+          <t>2967.24</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>1865.41</t>
+          <t>2438.41</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>1762.29</t>
+          <t>2516.28</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>1428.05</t>
+          <t>1965.30</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>1427.29</t>
+          <t>1957.32</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>1413.01</t>
+          <t>1853.72</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>1408.34</t>
+          <t>1854.17</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>2238.56</t>
+          <t>2983.44</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>2162.14</t>
+          <t>3074.40</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>1922.21</t>
+          <t>2544.53</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>1828.30</t>
+          <t>2620.82</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>1484.57</t>
+          <t>2059.00</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>1484.18</t>
+          <t>2051.88</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>1481.37</t>
+          <t>1940.78</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>1475.97</t>
+          <t>1933.92</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>2613.82</t>
+          <t>3248.25</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>2539.33</t>
+          <t>3622.94</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>2281.31</t>
+          <t>3071.39</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>2096.46</t>
+          <t>3036.04</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>1748.37</t>
+          <t>2405.18</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>1732.93</t>
+          <t>2386.49</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>1849.65</t>
+          <t>2385.68</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>1844.95</t>
+          <t>2382.53</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1907.37</t>
+          <t>2482.62</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1921.36</t>
+          <t>2591.05</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>631.31</t>
+          <t>1098.03</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1674.47</t>
+          <t>2278.42</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1403.68</t>
+          <t>1892.75</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1399.52</t>
+          <t>1886.47</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1337.51</t>
+          <t>1794.42</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1365.14</t>
+          <t>1794.55</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2229.96</t>
+          <t>2916.46</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2204.90</t>
+          <t>3019.40</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2037.51</t>
+          <t>2504.48</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1855.00</t>
+          <t>2549.65</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1517.25</t>
+          <t>2086.03</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1511.82</t>
+          <t>2076.98</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1470.70</t>
+          <t>1953.86</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1494.97</t>
+          <t>1949.61</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2194.39</t>
+          <t>2914.11</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>2189.00</t>
+          <t>3020.75</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>1855.35</t>
+          <t>2487.31</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>1845.35</t>
+          <t>2553.68</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>1502.94</t>
+          <t>2081.99</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>1497.61</t>
+          <t>2073.01</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1458.78</t>
+          <t>1955.76</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>1452.69</t>
+          <t>1948.11</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2191.19</t>
+          <t>2939.20</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2194.66</t>
+          <t>3039.14</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>1839.18</t>
+          <t>2498.94</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>1854.26</t>
+          <t>2577.19</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>1506.49</t>
+          <t>2092.42</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>1501.18</t>
+          <t>2083.49</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1460.50</t>
+          <t>1969.20</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1453.53</t>
+          <t>1960.32</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>2193.06</t>
+          <t>2959.51</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>2202.55</t>
+          <t>3058.69</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>1832.26</t>
+          <t>2517.14</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>1864.47</t>
+          <t>2598.76</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1512.15</t>
+          <t>2103.67</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1506.87</t>
+          <t>2094.78</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>1464.06</t>
+          <t>1980.47</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>1456.92</t>
+          <t>1971.48</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>2195.61</t>
+          <t>2977.37</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>2210.00</t>
+          <t>3075.53</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>1833.82</t>
+          <t>2533.51</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>1873.84</t>
+          <t>2617.65</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>1517.66</t>
+          <t>2113.82</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>1512.42</t>
+          <t>2104.97</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>1467.59</t>
+          <t>1990.48</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>1460.44</t>
+          <t>1981.51</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>2198.73</t>
+          <t>2994.18</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>2217.73</t>
+          <t>3091.22</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>1836.50</t>
+          <t>2549.03</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1883.09</t>
+          <t>2635.35</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>1523.66</t>
+          <t>2124.59</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>1518.44</t>
+          <t>2116.31</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>1471.59</t>
+          <t>2003.04</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>1464.54</t>
+          <t>1994.09</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>2206.17</t>
+          <t>3016.33</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>2232.10</t>
+          <t>3112.39</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>1843.57</t>
+          <t>2569.76</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>1898.52</t>
+          <t>2658.95</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>1536.11</t>
+          <t>2142.89</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>1530.92</t>
+          <t>2133.92</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>1480.53</t>
+          <t>2020.62</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>1474.36</t>
+          <t>2011.71</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>2269.78</t>
+          <t>3110.47</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>2308.74</t>
+          <t>3213.51</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>1904.68</t>
+          <t>2676.29</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>1973.30</t>
+          <t>2757.32</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>1605.16</t>
+          <t>2240.77</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>1600.00</t>
+          <t>2231.98</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>1551.20</t>
+          <t>2110.46</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>1545.63</t>
+          <t>2102.50</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>2634.68</t>
+          <t>3634.91</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>2459.46</t>
+          <t>3752.93</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>2336.44</t>
+          <t>3163.50</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>2057.72</t>
+          <t>3144.88</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>1728.56</t>
+          <t>2570.00</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>1716.14</t>
+          <t>2552.04</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>1875.60</t>
+          <t>2549.11</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>1879.59</t>
+          <t>2549.33</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2360.48</t>
+          <t>2607.24</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2329.67</t>
+          <t>2622.90</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>809.61</t>
+          <t>1220.13</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1962.07</t>
+          <t>2301.74</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1621.56</t>
+          <t>1932.02</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1618.46</t>
+          <t>1926.37</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1617.65</t>
+          <t>1897.08</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1591.57</t>
+          <t>1876.48</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2798.36</t>
+          <t>3039.72</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2753.97</t>
+          <t>3060.77</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2367.70</t>
+          <t>2659.03</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2238.05</t>
+          <t>2597.49</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1813.16</t>
+          <t>2112.96</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1799.32</t>
+          <t>2105.07</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1785.46</t>
+          <t>2072.68</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1785.57</t>
+          <t>2062.53</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2780.47</t>
+          <t>3028.56</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>2748.50</t>
+          <t>3054.79</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2315.55</t>
+          <t>2598.23</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2237.82</t>
+          <t>2611.03</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>1840.03</t>
+          <t>2100.66</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>1830.44</t>
+          <t>2093.01</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>1771.40</t>
+          <t>2068.79</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>1772.74</t>
+          <t>2063.48</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2782.81</t>
+          <t>3042.26</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2765.85</t>
+          <t>3066.75</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>2315.42</t>
+          <t>2618.01</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2262.34</t>
+          <t>2632.28</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>1849.45</t>
+          <t>2110.24</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>1845.73</t>
+          <t>2102.37</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>1772.67</t>
+          <t>2071.36</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1769.12</t>
+          <t>2064.83</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>2786.85</t>
+          <t>3054.42</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>2773.94</t>
+          <t>3086.01</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>2332.79</t>
+          <t>2625.44</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>2286.25</t>
+          <t>2655.13</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1851.07</t>
+          <t>2121.22</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>1851.19</t>
+          <t>2112.47</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>1784.25</t>
+          <t>2075.59</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>1780.22</t>
+          <t>2067.39</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>2790.44</t>
+          <t>3065.37</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>2771.91</t>
+          <t>3102.46</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>2344.32</t>
+          <t>2638.42</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>2302.88</t>
+          <t>2673.09</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>1851.53</t>
+          <t>2140.90</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>1849.74</t>
+          <t>2133.28</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>1806.63</t>
+          <t>2078.99</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>1789.59</t>
+          <t>2070.56</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>2796.59</t>
+          <t>3072.75</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>2773.04</t>
+          <t>3124.78</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>2360.27</t>
+          <t>2652.85</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2314.47</t>
+          <t>2691.98</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>1854.22</t>
+          <t>2154.33</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>1851.29</t>
+          <t>2146.41</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>1823.14</t>
+          <t>2086.76</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>1817.44</t>
+          <t>2078.78</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>2805.79</t>
+          <t>3095.74</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>2785.68</t>
+          <t>3170.14</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>2377.85</t>
+          <t>2672.10</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>2336.92</t>
+          <t>2717.51</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>1853.36</t>
+          <t>2167.83</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>1850.61</t>
+          <t>2160.64</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>1841.28</t>
+          <t>2098.46</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>1834.18</t>
+          <t>2090.51</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>2906.70</t>
+          <t>3205.83</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>2862.92</t>
+          <t>3266.23</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>2441.60</t>
+          <t>2775.67</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>2430.98</t>
+          <t>2814.40</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>1933.04</t>
+          <t>2254.69</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>1931.43</t>
+          <t>2246.90</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>1929.76</t>
+          <t>2176.33</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>1919.94</t>
+          <t>2168.07</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>3667.82</t>
+          <t>3951.16</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>3502.24</t>
+          <t>3824.34</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>3030.27</t>
+          <t>3412.20</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>2926.32</t>
+          <t>3267.42</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>2364.19</t>
+          <t>2594.45</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>2353.50</t>
+          <t>2574.37</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>2413.73</t>
+          <t>2687.14</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>2426.92</t>
+          <t>2693.92</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2471.47</t>
+          <t>2635.28</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2359.25</t>
+          <t>2652.70</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>696.87</t>
+          <t>860.76</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2041.84</t>
+          <t>2313.03</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1719.47</t>
+          <t>1956.31</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1714.01</t>
+          <t>1949.98</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1791.98</t>
+          <t>1901.35</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1787.91</t>
+          <t>1905.32</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2946.46</t>
+          <t>3130.88</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2528.37</t>
+          <t>3113.02</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2420.53</t>
+          <t>2660.25</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2216.46</t>
+          <t>2607.99</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1892.13</t>
+          <t>2145.88</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1884.95</t>
+          <t>2137.75</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1929.60</t>
+          <t>2091.63</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1923.92</t>
+          <t>2078.68</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>2949.75</t>
+          <t>3129.81</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>2658.83</t>
+          <t>3134.53</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2440.58</t>
+          <t>2646.93</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2053.89</t>
+          <t>2614.26</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>1874.30</t>
+          <t>2150.92</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>1871.90</t>
+          <t>2142.90</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2035.98</t>
+          <t>2092.18</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2027.50</t>
+          <t>2086.85</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>3006.83</t>
+          <t>3150.81</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2673.64</t>
+          <t>3149.67</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>2532.43</t>
+          <t>2669.13</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2238.03</t>
+          <t>2634.28</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>1648.27</t>
+          <t>2159.41</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>1641.87</t>
+          <t>2149.10</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>2018.38</t>
+          <t>2108.27</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>2009.59</t>
+          <t>2104.15</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>3012.84</t>
+          <t>3168.62</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>2684.23</t>
+          <t>3166.88</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>2539.00</t>
+          <t>2683.58</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>2249.03</t>
+          <t>2665.56</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1824.04</t>
+          <t>2176.81</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>1816.82</t>
+          <t>2168.32</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>2024.03</t>
+          <t>2117.74</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>2015.16</t>
+          <t>2113.30</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>2976.06</t>
+          <t>3184.93</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>2693.64</t>
+          <t>3178.85</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>2545.23</t>
+          <t>2698.95</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>2259.98</t>
+          <t>2682.07</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>1829.49</t>
+          <t>2185.32</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>1822.25</t>
+          <t>2177.37</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>2029.12</t>
+          <t>2129.05</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>2020.27</t>
+          <t>2125.06</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>2987.21</t>
+          <t>3201.09</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>2703.20</t>
+          <t>3196.81</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>2474.81</t>
+          <t>2709.73</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2271.29</t>
+          <t>2694.83</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>1837.37</t>
+          <t>2194.39</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>1830.15</t>
+          <t>2185.73</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>2034.46</t>
+          <t>2141.02</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>2025.66</t>
+          <t>2137.09</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>3007.10</t>
+          <t>3221.47</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>2719.04</t>
+          <t>3234.58</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>2492.43</t>
+          <t>2729.19</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>2288.85</t>
+          <t>2715.63</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>1852.15</t>
+          <t>2208.03</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>1844.98</t>
+          <t>2199.79</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>2045.49</t>
+          <t>2158.69</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>2036.92</t>
+          <t>2154.36</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>3114.86</t>
+          <t>3318.75</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>2817.92</t>
+          <t>3311.36</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>2595.66</t>
+          <t>2841.55</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>2387.79</t>
+          <t>2819.85</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>1942.14</t>
+          <t>2298.00</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>1935.06</t>
+          <t>2290.43</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>2108.79</t>
+          <t>2245.02</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>2100.64</t>
+          <t>2239.14</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>3872.35</t>
+          <t>4013.06</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>3284.95</t>
+          <t>3898.72</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>3128.50</t>
+          <t>3502.68</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>2605.26</t>
+          <t>3299.83</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>2125.24</t>
+          <t>2683.48</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>2107.46</t>
+          <t>2659.30</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>2508.50</t>
+          <t>2801.27</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>2505.59</t>
+          <t>2806.96</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2284.50</t>
+          <t>2635.92</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2007.60</t>
+          <t>2546.60</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>428.20</t>
+          <t>642.99</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1735.73</t>
+          <t>2203.39</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1560.15</t>
+          <t>1869.66</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1554.17</t>
+          <t>1863.39</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1660.20</t>
+          <t>1885.10</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1658.92</t>
+          <t>1880.07</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2445.19</t>
+          <t>3132.32</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>1939.10</t>
+          <t>3033.34</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2290.07</t>
+          <t>2634.57</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1599.53</t>
+          <t>2522.31</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1721.00</t>
+          <t>2049.14</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1713.36</t>
+          <t>2040.46</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1805.37</t>
+          <t>2076.96</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1800.07</t>
+          <t>2068.09</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2437.44</t>
+          <t>3134.57</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>2419.01</t>
+          <t>3034.93</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2224.20</t>
+          <t>2636.81</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>1559.58</t>
+          <t>2557.32</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1714.55</t>
+          <t>2053.93</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>1706.97</t>
+          <t>2044.91</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>1801.09</t>
+          <t>2075.89</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>1793.41</t>
+          <t>2067.21</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2653.16</t>
+          <t>3150.77</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2424.11</t>
+          <t>3049.20</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>2219.67</t>
+          <t>2657.10</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>1561.58</t>
+          <t>2585.28</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>1665.12</t>
+          <t>2100.48</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>1646.76</t>
+          <t>2092.65</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>1806.89</t>
+          <t>2087.69</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1798.65</t>
+          <t>2078.55</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>2628.37</t>
+          <t>3166.92</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>2431.16</t>
+          <t>3062.84</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>2226.55</t>
+          <t>2676.00</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>2048.83</t>
+          <t>2601.84</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1655.46</t>
+          <t>2109.92</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>1649.28</t>
+          <t>2102.12</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>1812.31</t>
+          <t>2100.63</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>1804.01</t>
+          <t>2091.12</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>2450.83</t>
+          <t>3181.62</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>2437.17</t>
+          <t>3075.02</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>2066.96</t>
+          <t>2692.17</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>2052.09</t>
+          <t>2616.31</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>1659.74</t>
+          <t>2119.23</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>1653.34</t>
+          <t>2110.75</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>1818.08</t>
+          <t>2114.94</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>1809.73</t>
+          <t>2106.51</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>2455.88</t>
+          <t>3195.66</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>2443.47</t>
+          <t>3086.78</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>2072.78</t>
+          <t>2707.36</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2060.09</t>
+          <t>2630.00</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>1664.54</t>
+          <t>2134.11</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>1658.13</t>
+          <t>2125.04</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>1823.88</t>
+          <t>2130.80</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>1815.56</t>
+          <t>2122.28</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>2383.21</t>
+          <t>3212.31</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>2457.38</t>
+          <t>3104.98</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>2083.77</t>
+          <t>2726.19</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>2075.84</t>
+          <t>2648.93</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>1676.63</t>
+          <t>2154.64</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>1670.30</t>
+          <t>2145.60</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>1800.71</t>
+          <t>2147.59</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>1793.07</t>
+          <t>2137.06</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>2468.01</t>
+          <t>3300.74</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>2558.55</t>
+          <t>3209.52</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>2078.46</t>
+          <t>2830.32</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>2176.64</t>
+          <t>2733.63</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>1764.91</t>
+          <t>2253.45</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>1759.04</t>
+          <t>2245.50</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>1860.18</t>
+          <t>2240.81</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>1862.32</t>
+          <t>2233.32</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>3221.97</t>
+          <t>4027.50</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>2547.84</t>
+          <t>3773.39</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>2603.91</t>
+          <t>3468.12</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>2001.36</t>
+          <t>3143.56</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>1657.11</t>
+          <t>2582.80</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>1638.19</t>
+          <t>2564.38</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>2099.91</t>
+          <t>2808.52</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>2097.17</t>
+          <t>2815.66</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>253.20</t>
+          <t>2293.40</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>106.61</t>
+          <t>2390.42</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>45.75</t>
+          <t>317.44</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>106.02</t>
+          <t>2073.19</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>116.15</t>
+          <t>1702.07</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>115.97</t>
+          <t>1694.87</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>620.41</t>
+          <t>1606.63</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>562.59</t>
+          <t>1610.25</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1904.86</t>
+          <t>2765.50</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>112.35</t>
+          <t>2854.72</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1361.21</t>
+          <t>2359.12</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>111.89</t>
+          <t>2372.73</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>266.73</t>
+          <t>1894.18</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>267.48</t>
+          <t>1886.07</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1314.99</t>
+          <t>1775.57</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1311.01</t>
+          <t>1771.82</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2136.24</t>
+          <t>2775.42</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>160.04</t>
+          <t>2863.99</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>1360.64</t>
+          <t>2338.28</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>143.01</t>
+          <t>2391.92</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>400.02</t>
+          <t>1893.98</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>400.03</t>
+          <t>1886.63</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1351.35</t>
+          <t>1777.65</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>1356.86</t>
+          <t>1771.21</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2043.42</t>
+          <t>2808.49</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>181.80</t>
+          <t>2900.68</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>1280.66</t>
+          <t>2356.96</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>150.99</t>
+          <t>2419.58</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>382.24</t>
+          <t>1907.79</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>382.08</t>
+          <t>1900.37</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>1354.57</t>
+          <t>1795.68</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1360.11</t>
+          <t>1788.51</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>1807.04</t>
+          <t>2825.21</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>116.04</t>
+          <t>2921.03</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>1300.22</t>
+          <t>2378.04</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>113.19</t>
+          <t>2448.89</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>379.18</t>
+          <t>1916.18</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>379.00</t>
+          <t>1914.55</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>1335.82</t>
+          <t>1813.55</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>1353.48</t>
+          <t>1806.34</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>1521.34</t>
+          <t>2840.21</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>112.56</t>
+          <t>2934.76</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>1003.82</t>
+          <t>2399.20</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>112.13</t>
+          <t>2467.80</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>367.32</t>
+          <t>1931.08</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>367.12</t>
+          <t>1923.59</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>1318.34</t>
+          <t>1821.40</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>1330.82</t>
+          <t>1819.38</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>1202.98</t>
+          <t>2858.55</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>111.31</t>
+          <t>2948.05</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>381.16</t>
+          <t>2417.97</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>110.93</t>
+          <t>2492.94</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>350.20</t>
+          <t>1945.76</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>349.97</t>
+          <t>1938.34</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>1311.36</t>
+          <t>1839.52</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>1220.59</t>
+          <t>1832.82</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>848.01</t>
+          <t>2884.19</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>109.68</t>
+          <t>2967.24</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>323.19</t>
+          <t>2438.41</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>109.39</t>
+          <t>2516.28</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>317.20</t>
+          <t>1965.30</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>316.97</t>
+          <t>1957.32</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>981.57</t>
+          <t>1853.72</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>898.19</t>
+          <t>1854.17</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>1662.73</t>
+          <t>2983.44</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>107.25</t>
+          <t>3074.40</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>1404.24</t>
+          <t>2544.53</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>107.11</t>
+          <t>2620.82</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>306.88</t>
+          <t>2059.00</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>307.15</t>
+          <t>2051.88</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>978.00</t>
+          <t>1940.78</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>1009.79</t>
+          <t>1933.92</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>1658.64</t>
+          <t>3248.25</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>332.54</t>
+          <t>3574.34</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>1704.75</t>
+          <t>3071.39</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>251.85</t>
+          <t>3036.04</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>1318.73</t>
+          <t>2405.18</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>1308.36</t>
+          <t>2386.49</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>1297.01</t>
+          <t>2385.68</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>1302.47</t>
+          <t>2382.53</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2471.47</t>
+          <t>2635.92</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2359.25</t>
+          <t>2652.70</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>809.61</t>
+          <t>1220.13</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2041.84</t>
+          <t>2313.03</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1719.47</t>
+          <t>1956.31</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1714.01</t>
+          <t>1949.98</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1791.98</t>
+          <t>1901.35</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1787.91</t>
+          <t>1905.32</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2946.46</t>
+          <t>3132.32</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2753.97</t>
+          <t>3144.22</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2420.53</t>
+          <t>2660.25</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2238.05</t>
+          <t>2629.97</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1892.13</t>
+          <t>2145.88</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1884.95</t>
+          <t>2137.75</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>1929.60</t>
+          <t>2091.63</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>1923.92</t>
+          <t>2078.68</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2949.75</t>
+          <t>3134.57</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>2748.50</t>
+          <t>3161.46</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2440.58</t>
+          <t>2646.93</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2237.82</t>
+          <t>2636.92</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>1874.30</t>
+          <t>2150.92</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>1871.90</t>
+          <t>2142.90</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2035.98</t>
+          <t>2092.18</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2027.50</t>
+          <t>2086.85</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>3006.83</t>
+          <t>3150.81</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2765.85</t>
+          <t>3181.69</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>2532.43</t>
+          <t>2669.13</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2262.34</t>
+          <t>2656.63</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>1849.45</t>
+          <t>2177.34</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>1845.73</t>
+          <t>2168.42</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>2018.38</t>
+          <t>2108.27</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>2009.59</t>
+          <t>2104.15</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>3012.84</t>
+          <t>3168.62</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>2773.94</t>
+          <t>3200.17</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>2539.00</t>
+          <t>2683.58</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>2286.25</t>
+          <t>2681.75</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>1851.07</t>
+          <t>2176.81</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>1851.19</t>
+          <t>2168.32</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>2024.03</t>
+          <t>2117.74</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>2015.16</t>
+          <t>2113.30</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>2976.06</t>
+          <t>3184.93</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>2771.91</t>
+          <t>3219.63</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>2545.23</t>
+          <t>2698.95</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>2302.88</t>
+          <t>2697.51</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>1851.53</t>
+          <t>2185.32</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>1849.74</t>
+          <t>2177.37</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>2029.12</t>
+          <t>2129.05</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>2020.27</t>
+          <t>2125.06</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>2987.21</t>
+          <t>3201.09</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>2773.04</t>
+          <t>3229.85</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>2474.81</t>
+          <t>2709.73</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2314.47</t>
+          <t>2711.65</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>1854.22</t>
+          <t>2194.39</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>1851.29</t>
+          <t>2185.73</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>2034.46</t>
+          <t>2141.02</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>2025.66</t>
+          <t>2137.09</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>3007.10</t>
+          <t>3221.47</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>2785.68</t>
+          <t>3244.12</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>2492.43</t>
+          <t>2729.19</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>2336.92</t>
+          <t>2732.49</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>1853.36</t>
+          <t>2208.03</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>1850.61</t>
+          <t>2199.79</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>2045.49</t>
+          <t>2158.69</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>2036.92</t>
+          <t>2154.36</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>3114.86</t>
+          <t>3318.75</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>2862.92</t>
+          <t>3346.55</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>2595.66</t>
+          <t>2841.55</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>2430.98</t>
+          <t>2852.21</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>1942.14</t>
+          <t>2298.00</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>1935.06</t>
+          <t>2290.43</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>2108.79</t>
+          <t>2245.02</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>2100.64</t>
+          <t>2239.14</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>3872.35</t>
+          <t>4113.15</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>3502.24</t>
+          <t>3993.50</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>3137.33</t>
+          <t>3502.68</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>2926.32</t>
+          <t>3329.70</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>2364.19</t>
+          <t>2708.43</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>2353.50</t>
+          <t>2683.23</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>2607.95</t>
+          <t>2808.52</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>2606.20</t>
+          <t>2815.66</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">

--- a/ASHRAE901_ApartmentHighRise_STD2019_AtlantaTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_AtlantaTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2563.72</t>
+          <t>2649.96</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2568.04</t>
+          <t>2153.56</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>555.15</t>
+          <t>662.10</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2219.85</t>
+          <t>1796.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1826.24</t>
+          <t>1473.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1818.95</t>
+          <t>1468.97</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1848.60</t>
+          <t>1927.11</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1842.19</t>
+          <t>1906.07</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>3072.73</t>
+          <t>3167.05</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>3057.47</t>
+          <t>2632.25</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2600.48</t>
+          <t>2677.91</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2544.18</t>
+          <t>2117.34</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2066.50</t>
+          <t>1763.25</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2057.04</t>
+          <t>1752.70</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2063.42</t>
+          <t>2106.10</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2055.68</t>
+          <t>2102.02</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3077.20</t>
+          <t>3152.78</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>3080.20</t>
+          <t>2624.20</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2599.16</t>
+          <t>2707.26</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2566.36</t>
+          <t>2121.07</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>2079.89</t>
+          <t>1750.61</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>2068.52</t>
+          <t>1742.61</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2065.49</t>
+          <t>2125.70</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2058.30</t>
+          <t>2110.58</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>3097.63</t>
+          <t>3140.30</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>3112.46</t>
+          <t>2630.96</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2618.02</t>
+          <t>2735.79</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2591.68</t>
+          <t>2155.73</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>2093.65</t>
+          <t>1773.91</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>2083.48</t>
+          <t>1762.73</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>2078.21</t>
+          <t>2158.77</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2069.84</t>
+          <t>2151.11</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>3111.90</t>
+          <t>3143.26</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>3131.34</t>
+          <t>2635.19</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>2638.69</t>
+          <t>2734.51</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>2613.19</t>
+          <t>2158.30</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>2110.62</t>
+          <t>1772.14</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>2099.39</t>
+          <t>1760.50</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>2088.61</t>
+          <t>2157.29</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>2080.37</t>
+          <t>2149.34</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>3120.84</t>
+          <t>3143.30</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>3140.80</t>
+          <t>2638.16</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>2653.73</t>
+          <t>2721.90</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>2639.21</t>
+          <t>2164.83</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>2120.70</t>
+          <t>1774.10</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>2111.73</t>
+          <t>1762.25</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>2099.60</t>
+          <t>2149.34</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>2091.28</t>
+          <t>2141.54</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>3133.86</t>
+          <t>3133.50</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>3146.33</t>
+          <t>2623.21</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>2665.97</t>
+          <t>2719.16</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2659.09</t>
+          <t>2141.06</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>2135.78</t>
+          <t>1777.44</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2126.77</t>
+          <t>1765.47</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>2116.68</t>
+          <t>2150.11</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>2107.15</t>
+          <t>2146.54</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>3152.20</t>
+          <t>3146.17</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>3163.65</t>
+          <t>2632.75</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>2683.29</t>
+          <t>2720.68</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>2685.28</t>
+          <t>2153.23</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>2154.99</t>
+          <t>1789.18</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>2146.18</t>
+          <t>1777.11</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>2133.28</t>
+          <t>2147.56</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>2125.67</t>
+          <t>2154.58</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>3244.19</t>
+          <t>3177.90</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>3270.80</t>
+          <t>2718.51</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>2790.66</t>
+          <t>2751.25</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>2797.77</t>
+          <t>2238.57</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>2259.94</t>
+          <t>1861.42</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>2251.14</t>
+          <t>1848.57</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>2206.62</t>
+          <t>2204.05</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>2197.93</t>
+          <t>2197.88</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>3997.47</t>
+          <t>3970.64</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>3825.57</t>
+          <t>3290.85</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>3406.64</t>
+          <t>3404.69</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>3232.32</t>
+          <t>2641.35</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>2662.80</t>
+          <t>2154.90</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>2643.31</t>
+          <t>2137.26</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>2756.18</t>
+          <t>2745.43</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>2758.78</t>
+          <t>2759.15</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2568.82</t>
+          <t>2635.78</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2593.64</t>
+          <t>2113.65</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>606.65</t>
+          <t>543.21</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2256.06</t>
+          <t>1767.81</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1897.66</t>
+          <t>1720.02</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1890.23</t>
+          <t>1713.52</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1867.54</t>
+          <t>1929.09</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1864.06</t>
+          <t>1928.66</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3041.42</t>
+          <t>3113.76</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3071.45</t>
+          <t>2448.49</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2640.04</t>
+          <t>2664.78</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2568.03</t>
+          <t>2321.69</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2113.76</t>
+          <t>1907.96</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2104.22</t>
+          <t>1895.37</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2058.52</t>
+          <t>2119.65</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2054.98</t>
+          <t>2112.80</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,87 +1419,87 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>3053.59</t>
+          <t>3118.99</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>3085.70</t>
+          <t>2410.32</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2636.71</t>
+          <t>2649.57</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2599.33</t>
+          <t>1985.62</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
+          <t>1897.49</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>1884.93</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2119.07</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>2112.30</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>3133.36</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>2741.54</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>2661.44</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>2291.17</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>1866.08</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>1858.82</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
           <t>2122.02</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>2110.01</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>2055.85</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>2051.69</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>3078.44</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>3102.95</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>2642.90</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>2630.18</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>2124.42</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>2115.27</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>2061.90</t>
-        </is>
-      </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2055.20</t>
+          <t>2113.40</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>3101.69</t>
+          <t>3144.81</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>3139.34</t>
+          <t>2745.95</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>2653.28</t>
+          <t>2679.15</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>2646.45</t>
+          <t>2299.48</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>2133.37</t>
+          <t>1872.43</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>2137.03</t>
+          <t>1865.18</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>2063.31</t>
+          <t>2128.14</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>2055.75</t>
+          <t>2120.64</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>3122.50</t>
+          <t>3159.00</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>3148.51</t>
+          <t>2753.78</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>2656.89</t>
+          <t>2690.20</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>2647.19</t>
+          <t>2309.75</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>2155.35</t>
+          <t>1878.07</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>2146.81</t>
+          <t>1870.83</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>2067.40</t>
+          <t>2135.08</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>2061.52</t>
+          <t>2126.30</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>3147.11</t>
+          <t>3169.44</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>3148.43</t>
+          <t>2761.89</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>2665.91</t>
+          <t>2694.04</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2660.39</t>
+          <t>2319.83</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>2165.12</t>
+          <t>1884.01</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2157.41</t>
+          <t>1876.78</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>2077.15</t>
+          <t>2124.68</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>2070.65</t>
+          <t>2126.09</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>3183.38</t>
+          <t>3188.59</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>3171.12</t>
+          <t>2776.03</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>2675.54</t>
+          <t>2689.07</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>2679.91</t>
+          <t>2335.62</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>2180.14</t>
+          <t>1898.28</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>2172.56</t>
+          <t>1891.07</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>2089.94</t>
+          <t>2124.70</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>2082.68</t>
+          <t>2124.54</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>3292.86</t>
+          <t>3281.42</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>3303.34</t>
+          <t>2866.40</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>2768.47</t>
+          <t>2739.02</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>2790.10</t>
+          <t>2423.79</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>2268.32</t>
+          <t>1976.76</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>2260.66</t>
+          <t>1969.44</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>2174.02</t>
+          <t>2186.72</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>2166.01</t>
+          <t>2181.74</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>4113.15</t>
+          <t>4091.50</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>3907.72</t>
+          <t>2939.26</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>3397.20</t>
+          <t>3364.87</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>3246.76</t>
+          <t>2381.38</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>2665.80</t>
+          <t>1997.16</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>2645.97</t>
+          <t>1979.68</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>2737.97</t>
+          <t>2716.90</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>2738.23</t>
+          <t>2724.23</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2570.93</t>
+          <t>2591.50</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2635.29</t>
+          <t>2380.20</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>426.63</t>
+          <t>588.08</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2273.86</t>
+          <t>2284.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1907.11</t>
+          <t>1684.90</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1900.21</t>
+          <t>1678.51</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1844.46</t>
+          <t>1869.00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1845.00</t>
+          <t>1864.11</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>3071.88</t>
+          <t>3026.95</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3144.22</t>
+          <t>2892.37</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2602.71</t>
+          <t>2491.82</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2629.97</t>
+          <t>2384.87</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2120.70</t>
+          <t>1882.38</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2112.46</t>
+          <t>1871.84</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2037.29</t>
+          <t>2020.76</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2034.96</t>
+          <t>2013.91</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>3078.30</t>
+          <t>3038.68</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>3161.46</t>
+          <t>2939.96</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2614.33</t>
+          <t>2485.03</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>2636.92</t>
+          <t>2429.83</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>2148.59</t>
+          <t>1903.11</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>2117.37</t>
+          <t>1894.26</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2056.96</t>
+          <t>2022.58</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2047.05</t>
+          <t>2015.05</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>3094.98</t>
+          <t>3059.86</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>3181.69</t>
+          <t>2979.98</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>2619.05</t>
+          <t>2499.73</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2656.63</t>
+          <t>2467.12</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>2177.34</t>
+          <t>1930.31</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>2168.42</t>
+          <t>1920.96</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>2061.59</t>
+          <t>2031.02</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2036.78</t>
+          <t>2023.19</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>3103.97</t>
+          <t>3125.35</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>3200.17</t>
+          <t>3004.32</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>2628.30</t>
+          <t>2655.63</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>2681.75</t>
+          <t>2498.98</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>2147.31</t>
+          <t>2178.62</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>2136.31</t>
+          <t>2169.14</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>2070.68</t>
+          <t>2074.02</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>2062.49</t>
+          <t>2064.78</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>3111.44</t>
+          <t>3136.87</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>3219.63</t>
+          <t>3035.31</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>2637.13</t>
+          <t>2663.17</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>2697.51</t>
+          <t>2712.20</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>2157.07</t>
+          <t>2183.31</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>2147.23</t>
+          <t>2172.74</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>2075.04</t>
+          <t>2078.00</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>2067.46</t>
+          <t>2068.73</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>3123.79</t>
+          <t>3148.99</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>3229.85</t>
+          <t>3054.30</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>2646.85</t>
+          <t>2671.18</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2711.65</t>
+          <t>2721.89</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>2167.50</t>
+          <t>2189.79</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2156.59</t>
+          <t>2178.85</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>2079.14</t>
+          <t>2084.34</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>2072.45</t>
+          <t>2077.48</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>3150.05</t>
+          <t>3167.02</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>3244.12</t>
+          <t>3248.40</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>2673.55</t>
+          <t>2687.11</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>2732.49</t>
+          <t>2740.51</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>2188.04</t>
+          <t>2205.88</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>2177.31</t>
+          <t>2196.06</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>2094.80</t>
+          <t>2101.45</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>2083.81</t>
+          <t>2092.04</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>3269.05</t>
+          <t>3263.77</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>3346.55</t>
+          <t>3197.77</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>2798.07</t>
+          <t>2752.31</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>2837.38</t>
+          <t>2850.85</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>2296.49</t>
+          <t>2305.50</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>2285.81</t>
+          <t>2294.01</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>2181.25</t>
+          <t>2198.02</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>2174.67</t>
+          <t>2188.46</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>4027.24</t>
+          <t>3976.55</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>3993.50</t>
+          <t>3726.48</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>3408.32</t>
+          <t>3279.91</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>3298.26</t>
+          <t>3220.83</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>2708.43</t>
+          <t>2693.32</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>2683.23</t>
+          <t>2667.01</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>2732.08</t>
+          <t>2650.37</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>2738.95</t>
+          <t>2651.97</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2492.62</t>
+          <t>2332.90</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2638.14</t>
+          <t>2426.26</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>317.44</t>
+          <t>352.24</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2284.62</t>
+          <t>2043.47</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1909.09</t>
+          <t>1693.41</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1902.41</t>
+          <t>1688.03</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1801.23</t>
+          <t>1589.03</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1845.40</t>
+          <t>1583.44</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2958.69</t>
+          <t>2843.88</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3100.36</t>
+          <t>2937.63</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2564.59</t>
+          <t>2361.18</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2618.42</t>
+          <t>2375.56</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2124.28</t>
+          <t>2137.48</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2116.27</t>
+          <t>2128.10</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1977.40</t>
+          <t>1780.38</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1974.70</t>
+          <t>1775.27</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2981.24</t>
+          <t>2854.35</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>3104.80</t>
+          <t>2949.68</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2563.34</t>
+          <t>2361.78</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2620.96</t>
+          <t>2387.58</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>2130.46</t>
+          <t>1996.27</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>2122.48</t>
+          <t>1897.25</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1977.39</t>
+          <t>2040.06</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1968.21</t>
+          <t>2032.36</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2986.27</t>
+          <t>2870.14</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>3118.16</t>
+          <t>2963.12</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>2582.68</t>
+          <t>2558.97</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>2638.63</t>
+          <t>2407.16</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>2133.14</t>
+          <t>1915.51</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>2125.41</t>
+          <t>1905.77</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>1985.34</t>
+          <t>2048.48</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1977.15</t>
+          <t>2039.39</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>2992.18</t>
+          <t>2887.94</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>3130.16</t>
+          <t>2974.53</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>2599.57</t>
+          <t>2354.35</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>2660.50</t>
+          <t>2423.31</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>2142.06</t>
+          <t>1923.39</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>2134.42</t>
+          <t>1916.26</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>2010.07</t>
+          <t>2057.85</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>2002.51</t>
+          <t>2048.63</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>3003.88</t>
+          <t>2916.11</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>3141.21</t>
+          <t>2985.74</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>2616.38</t>
+          <t>2366.59</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>2679.41</t>
+          <t>2439.00</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>2142.12</t>
+          <t>1930.42</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>2134.72</t>
+          <t>1923.11</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>2019.72</t>
+          <t>1898.84</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>2012.12</t>
+          <t>1805.36</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>3021.28</t>
+          <t>2939.69</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>3152.20</t>
+          <t>2995.17</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>2632.27</t>
+          <t>2381.05</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2697.01</t>
+          <t>2452.45</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>2140.32</t>
+          <t>1938.30</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2132.50</t>
+          <t>1930.92</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>2031.92</t>
+          <t>1820.28</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>2024.33</t>
+          <t>1814.20</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>3031.55</t>
+          <t>2960.40</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>3168.94</t>
+          <t>3011.66</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>2653.19</t>
+          <t>2398.17</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>2720.35</t>
+          <t>2470.84</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>2160.54</t>
+          <t>1957.93</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>2152.84</t>
+          <t>1947.74</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>2047.09</t>
+          <t>1837.02</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>2039.55</t>
+          <t>1829.26</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>3126.37</t>
+          <t>3024.80</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>3266.31</t>
+          <t>3117.44</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>2769.37</t>
+          <t>2456.86</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>2819.85</t>
+          <t>2569.13</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>2262.53</t>
+          <t>2047.16</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>2255.35</t>
+          <t>2035.90</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>2123.41</t>
+          <t>1923.62</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>2115.90</t>
+          <t>1914.51</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>3727.38</t>
+          <t>3853.55</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>3868.91</t>
+          <t>3738.12</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>3368.35</t>
+          <t>3063.34</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>3329.70</t>
+          <t>3009.64</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>2647.35</t>
+          <t>2464.25</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>2628.61</t>
+          <t>2441.79</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>2608.27</t>
+          <t>2418.25</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>2618.37</t>
+          <t>2417.89</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2465.76</t>
+          <t>2172.43</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2564.36</t>
+          <t>2260.24</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>802.52</t>
+          <t>244.10</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2296.13</t>
+          <t>1934.96</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1889.65</t>
+          <t>1593.66</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1884.26</t>
+          <t>1588.89</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1798.56</t>
+          <t>1504.34</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1792.49</t>
+          <t>1517.28</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2942.68</t>
+          <t>2640.86</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>3061.95</t>
+          <t>2729.37</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2549.22</t>
+          <t>2254.71</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2605.19</t>
+          <t>2250.09</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2114.49</t>
+          <t>1790.97</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2106.00</t>
+          <t>1784.37</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1962.17</t>
+          <t>1682.42</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1964.21</t>
+          <t>1681.42</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2967.45</t>
+          <t>2646.58</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>3095.31</t>
+          <t>2736.60</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2547.72</t>
+          <t>2214.84</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2607.77</t>
+          <t>2263.02</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>2088.85</t>
+          <t>1792.25</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>2081.25</t>
+          <t>1785.78</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>1962.27</t>
+          <t>1686.95</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>1954.63</t>
+          <t>1681.79</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2990.32</t>
+          <t>2661.79</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>3117.08</t>
+          <t>2751.50</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>2565.13</t>
+          <t>2223.80</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>2628.80</t>
+          <t>2281.46</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>2096.19</t>
+          <t>1802.54</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>2088.49</t>
+          <t>1796.00</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>1974.62</t>
+          <t>1697.63</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1966.86</t>
+          <t>1691.55</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>2982.15</t>
+          <t>2675.71</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>3131.25</t>
+          <t>2764.59</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>2575.58</t>
+          <t>2238.92</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>2647.66</t>
+          <t>2297.39</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>2108.68</t>
+          <t>1811.90</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>2100.73</t>
+          <t>1805.40</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>1986.58</t>
+          <t>1707.62</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>1978.83</t>
+          <t>1701.20</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>2984.99</t>
+          <t>2687.82</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>3143.72</t>
+          <t>2776.10</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>2590.96</t>
+          <t>2251.32</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>2678.17</t>
+          <t>2310.99</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>2119.88</t>
+          <t>1820.21</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>2111.87</t>
+          <t>1813.59</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>1997.16</t>
+          <t>1716.30</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>1989.45</t>
+          <t>1709.79</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>3001.41</t>
+          <t>2699.38</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>3155.86</t>
+          <t>2787.27</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>2605.54</t>
+          <t>2263.40</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2702.77</t>
+          <t>2323.65</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>2130.51</t>
+          <t>1828.55</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2122.61</t>
+          <t>1821.95</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>2010.60</t>
+          <t>1725.05</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>2002.91</t>
+          <t>1720.89</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>3022.85</t>
+          <t>2716.83</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>3174.56</t>
+          <t>2804.44</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>2625.35</t>
+          <t>2280.48</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>2732.32</t>
+          <t>2342.62</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>2149.14</t>
+          <t>1845.63</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>2140.32</t>
+          <t>1838.98</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>2027.45</t>
+          <t>1742.50</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>2019.81</t>
+          <t>1735.87</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>3112.67</t>
+          <t>2817.28</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>3271.90</t>
+          <t>2905.98</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>2731.45</t>
+          <t>2340.50</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>2852.21</t>
+          <t>2440.48</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>2244.25</t>
+          <t>1931.01</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>2236.39</t>
+          <t>1924.40</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>2109.64</t>
+          <t>1826.53</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>2102.02</t>
+          <t>1819.97</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>3734.48</t>
+          <t>3378.11</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>3821.93</t>
+          <t>3405.10</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>3251.77</t>
+          <t>2850.34</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>3320.31</t>
+          <t>2816.10</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>2656.14</t>
+          <t>2311.42</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>2637.38</t>
+          <t>2292.44</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>2545.54</t>
+          <t>2264.96</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>2545.38</t>
+          <t>2265.83</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2466.26</t>
+          <t>1992.13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2536.48</t>
+          <t>2090.31</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>831.40</t>
+          <t>375.77</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2221.68</t>
+          <t>1788.42</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1857.70</t>
+          <t>1472.77</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1851.47</t>
+          <t>1467.68</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1772.62</t>
+          <t>1380.68</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1769.53</t>
+          <t>1400.76</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2890.98</t>
+          <t>2390.65</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>3003.34</t>
+          <t>2484.49</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2494.56</t>
+          <t>2175.09</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2509.28</t>
+          <t>2051.57</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2039.79</t>
+          <t>1643.03</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2031.92</t>
+          <t>1636.27</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1954.39</t>
+          <t>1532.59</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1945.26</t>
+          <t>1531.77</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2895.55</t>
+          <t>2358.03</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>3021.63</t>
+          <t>2451.50</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>2478.49</t>
+          <t>1975.08</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>2522.43</t>
+          <t>2029.08</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>2038.62</t>
+          <t>1647.57</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>2030.83</t>
+          <t>1641.33</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1956.09</t>
+          <t>1543.23</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>1946.77</t>
+          <t>1538.45</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2928.65</t>
+          <t>2361.40</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>3048.32</t>
+          <t>2454.10</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>2492.17</t>
+          <t>1972.53</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>2541.20</t>
+          <t>2036.17</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>2050.14</t>
+          <t>1656.50</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>2042.41</t>
+          <t>1650.27</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>1970.35</t>
+          <t>1552.52</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1961.21</t>
+          <t>1546.63</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>2956.09</t>
+          <t>2366.02</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>3064.71</t>
+          <t>2457.96</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>2509.37</t>
+          <t>1979.27</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>2561.92</t>
+          <t>2043.42</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>2061.69</t>
+          <t>1665.05</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>2054.00</t>
+          <t>1658.77</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>1984.43</t>
+          <t>1561.54</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>1975.31</t>
+          <t>1555.37</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>2978.40</t>
+          <t>2370.61</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>3079.27</t>
+          <t>2461.84</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>2524.97</t>
+          <t>1984.87</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>2585.03</t>
+          <t>2049.97</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>2089.21</t>
+          <t>1672.61</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>2080.15</t>
+          <t>1666.32</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>1995.51</t>
+          <t>1569.55</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>1987.64</t>
+          <t>1563.31</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>2993.18</t>
+          <t>2346.61</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>3093.23</t>
+          <t>2435.85</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>2539.86</t>
+          <t>2032.41</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2595.00</t>
+          <t>2086.68</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>2098.78</t>
+          <t>1686.55</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2089.75</t>
+          <t>1680.35</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>2009.51</t>
+          <t>1583.41</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>2001.67</t>
+          <t>1579.53</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>3013.38</t>
+          <t>2357.54</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>3112.83</t>
+          <t>2446.35</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>2560.04</t>
+          <t>2056.31</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>2622.68</t>
+          <t>2108.60</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>2115.90</t>
+          <t>1702.01</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>2106.92</t>
+          <t>1695.80</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>2027.05</t>
+          <t>1599.35</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>2019.25</t>
+          <t>1593.22</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>3103.77</t>
+          <t>2442.22</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>3214.32</t>
+          <t>2532.40</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>2665.95</t>
+          <t>2116.04</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>2737.28</t>
+          <t>2176.70</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>2207.60</t>
+          <t>1778.74</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>2198.62</t>
+          <t>1772.55</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>2111.01</t>
+          <t>1674.87</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>2103.19</t>
+          <t>1668.72</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>3579.09</t>
+          <t>2888.54</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>3680.64</t>
+          <t>2952.20</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>3160.12</t>
+          <t>2464.82</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>3131.33</t>
+          <t>2522.86</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>2568.64</t>
+          <t>2015.14</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>2550.08</t>
+          <t>1998.46</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>2551.23</t>
+          <t>1963.14</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>2551.38</t>
+          <t>1963.64</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2424.76</t>
+          <t>1849.53</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2527.76</t>
+          <t>1928.33</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1056.35</t>
+          <t>365.50</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2230.75</t>
+          <t>1671.27</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1854.36</t>
+          <t>1381.55</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1847.94</t>
+          <t>1376.65</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1753.54</t>
+          <t>1305.14</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1752.20</t>
+          <t>1331.63</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2845.45</t>
+          <t>2219.99</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2943.48</t>
+          <t>2288.41</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2459.48</t>
+          <t>2039.18</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2507.89</t>
+          <t>1914.00</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2051.70</t>
+          <t>1532.27</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2043.75</t>
+          <t>1525.38</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1922.64</t>
+          <t>1440.14</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1908.24</t>
+          <t>1444.32</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2835.54</t>
+          <t>2209.81</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2932.73</t>
+          <t>2268.87</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>2430.71</t>
+          <t>1910.10</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>2498.98</t>
+          <t>1906.89</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>2037.65</t>
+          <t>1488.47</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>2029.82</t>
+          <t>1482.97</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>1914.28</t>
+          <t>1431.19</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>1906.60</t>
+          <t>1432.27</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2856.80</t>
+          <t>2216.84</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2948.46</t>
+          <t>2276.54</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>2441.83</t>
+          <t>1886.38</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2517.58</t>
+          <t>1908.94</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>2045.39</t>
+          <t>1490.15</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>2037.62</t>
+          <t>1484.61</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>1925.24</t>
+          <t>1436.89</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1917.40</t>
+          <t>1433.16</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>2873.82</t>
+          <t>2219.69</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>2963.52</t>
+          <t>2285.66</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>2457.11</t>
+          <t>1890.51</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>2534.93</t>
+          <t>1920.21</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>2055.21</t>
+          <t>1493.45</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>2047.48</t>
+          <t>1488.29</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>1936.23</t>
+          <t>1441.13</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>1928.40</t>
+          <t>1437.06</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>2888.81</t>
+          <t>2224.94</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>2976.86</t>
+          <t>2294.14</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>2470.87</t>
+          <t>1895.22</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>2550.12</t>
+          <t>1930.37</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>2064.06</t>
+          <t>1497.62</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>2056.36</t>
+          <t>1492.82</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>1946.06</t>
+          <t>1445.27</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>1938.26</t>
+          <t>1441.14</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>2903.03</t>
+          <t>2229.80</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>2989.64</t>
+          <t>2302.41</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>2484.02</t>
+          <t>1900.73</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2564.46</t>
+          <t>1939.85</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>2072.95</t>
+          <t>1502.41</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2065.27</t>
+          <t>1501.71</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>1958.80</t>
+          <t>1449.93</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>1951.02</t>
+          <t>1448.00</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>2922.48</t>
+          <t>2239.41</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>3007.94</t>
+          <t>2312.10</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>2502.38</t>
+          <t>1911.01</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>2584.72</t>
+          <t>1950.94</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>2088.15</t>
+          <t>1515.00</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>2080.53</t>
+          <t>1519.06</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>1974.87</t>
+          <t>1462.47</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>1967.13</t>
+          <t>1458.39</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>3009.40</t>
+          <t>2316.73</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>3099.03</t>
+          <t>2381.04</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>2605.31</t>
+          <t>1958.92</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>2678.26</t>
+          <t>2005.33</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>2172.79</t>
+          <t>1586.70</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>2165.18</t>
+          <t>1583.05</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>2055.53</t>
+          <t>1529.82</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>2047.78</t>
+          <t>1525.69</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>3442.23</t>
+          <t>2648.77</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>3574.34</t>
+          <t>2784.50</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>3082.20</t>
+          <t>2379.00</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>3060.52</t>
+          <t>2348.13</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>2490.07</t>
+          <t>1905.63</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>2472.52</t>
+          <t>1889.98</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>2480.88</t>
+          <t>1848.54</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>2481.09</t>
+          <t>1851.44</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2293.40</t>
+          <t>1946.38</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2390.42</t>
+          <t>2006.88</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1209.60</t>
+          <t>575.54</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2073.19</t>
+          <t>1707.49</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1702.07</t>
+          <t>1434.44</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1694.87</t>
+          <t>1428.58</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1606.63</t>
+          <t>1353.24</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1610.25</t>
+          <t>1370.09</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2765.50</t>
+          <t>2317.84</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2854.72</t>
+          <t>2358.83</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2359.12</t>
+          <t>2032.33</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2372.73</t>
+          <t>1940.20</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1894.18</t>
+          <t>1583.53</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1886.07</t>
+          <t>1577.26</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1775.57</t>
+          <t>1504.36</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1771.82</t>
+          <t>1503.30</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2775.42</t>
+          <t>2293.61</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>2863.99</t>
+          <t>2295.23</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>2338.28</t>
+          <t>1969.31</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>2391.92</t>
+          <t>1892.66</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1893.98</t>
+          <t>1542.68</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1886.63</t>
+          <t>1536.18</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1777.65</t>
+          <t>1492.21</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1771.21</t>
+          <t>1490.30</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2808.49</t>
+          <t>2293.74</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2900.68</t>
+          <t>2282.88</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>2356.96</t>
+          <t>1931.48</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2419.58</t>
+          <t>1886.87</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>1907.79</t>
+          <t>1542.42</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1900.37</t>
+          <t>1536.18</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>1795.68</t>
+          <t>1490.93</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1788.51</t>
+          <t>1488.11</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>2825.21</t>
+          <t>2297.60</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>2921.03</t>
+          <t>2281.97</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>2378.04</t>
+          <t>1936.73</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>2448.89</t>
+          <t>1884.12</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1916.18</t>
+          <t>1529.92</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1914.55</t>
+          <t>1530.69</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>1813.55</t>
+          <t>1492.30</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>1806.34</t>
+          <t>1488.26</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>2840.21</t>
+          <t>2302.07</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>2934.76</t>
+          <t>2288.93</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>2399.20</t>
+          <t>1941.16</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>2467.80</t>
+          <t>1884.42</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>1931.08</t>
+          <t>1523.90</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>1923.59</t>
+          <t>1517.82</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>1821.40</t>
+          <t>1494.05</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>1819.38</t>
+          <t>1489.78</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>2858.55</t>
+          <t>2306.96</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>2948.05</t>
+          <t>2295.87</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>2417.97</t>
+          <t>1946.29</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2492.94</t>
+          <t>1886.12</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>1945.76</t>
+          <t>1524.47</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>1938.34</t>
+          <t>1518.20</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>1839.52</t>
+          <t>1496.61</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>1832.82</t>
+          <t>1494.58</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>2884.19</t>
+          <t>2315.15</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>2967.24</t>
+          <t>2306.55</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>2438.41</t>
+          <t>1956.99</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>2516.28</t>
+          <t>1906.01</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>1965.30</t>
+          <t>1533.73</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>1957.32</t>
+          <t>1527.39</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>1853.72</t>
+          <t>1506.91</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>1854.17</t>
+          <t>1502.59</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>2983.44</t>
+          <t>2374.16</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>3074.40</t>
+          <t>2382.33</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>2544.53</t>
+          <t>2006.82</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>2620.82</t>
+          <t>1974.82</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>2059.00</t>
+          <t>1604.73</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>2051.88</t>
+          <t>1598.47</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>1940.78</t>
+          <t>1573.92</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>1933.92</t>
+          <t>1567.11</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>3248.25</t>
+          <t>2756.87</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>3622.94</t>
+          <t>2776.75</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>3071.39</t>
+          <t>2511.48</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>3036.04</t>
+          <t>2294.83</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>2405.18</t>
+          <t>1912.61</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>2386.49</t>
+          <t>1896.06</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>2385.68</t>
+          <t>1989.24</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>2382.53</t>
+          <t>1992.21</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2482.62</t>
+          <t>2018.33</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2591.05</t>
+          <t>2021.08</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1098.03</t>
+          <t>701.43</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2278.42</t>
+          <t>1713.05</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1892.75</t>
+          <t>1393.93</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1886.47</t>
+          <t>1392.63</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1794.42</t>
+          <t>1378.18</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1794.55</t>
+          <t>1386.29</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2916.46</t>
+          <t>2392.21</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>3019.40</t>
+          <t>2361.10</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2504.48</t>
+          <t>2070.15</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2549.65</t>
+          <t>1921.45</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2086.03</t>
+          <t>1527.07</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2076.98</t>
+          <t>1523.71</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1953.86</t>
+          <t>1529.25</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1949.61</t>
+          <t>1528.89</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2914.11</t>
+          <t>2363.87</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>3020.75</t>
+          <t>2213.91</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>2487.31</t>
+          <t>2016.01</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>2553.68</t>
+          <t>1863.56</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>2081.99</t>
+          <t>1512.20</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>2073.01</t>
+          <t>1508.92</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1955.76</t>
+          <t>1518.80</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>1948.11</t>
+          <t>1514.16</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2939.20</t>
+          <t>2364.58</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>3039.14</t>
+          <t>2202.39</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>2498.94</t>
+          <t>2013.89</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2577.19</t>
+          <t>1885.12</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>2092.42</t>
+          <t>1514.43</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>2083.49</t>
+          <t>1511.15</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1969.20</t>
+          <t>1522.40</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1960.32</t>
+          <t>1516.55</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>2959.51</t>
+          <t>2368.13</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>3058.69</t>
+          <t>2197.59</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>2517.14</t>
+          <t>2027.05</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>2598.76</t>
+          <t>1906.46</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>2103.67</t>
+          <t>1518.47</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>2094.78</t>
+          <t>1515.16</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>1980.47</t>
+          <t>1527.80</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>1971.48</t>
+          <t>1521.61</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>2977.37</t>
+          <t>2371.78</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>3075.53</t>
+          <t>2200.99</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>2533.51</t>
+          <t>2039.43</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>2617.65</t>
+          <t>1912.13</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>2113.82</t>
+          <t>1522.42</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>2104.97</t>
+          <t>1519.09</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>1990.48</t>
+          <t>1532.91</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>1981.51</t>
+          <t>1526.62</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>2994.18</t>
+          <t>2375.98</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>3091.22</t>
+          <t>2204.78</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>2549.03</t>
+          <t>2051.20</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2635.35</t>
+          <t>1918.09</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>2124.59</t>
+          <t>1526.78</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2116.31</t>
+          <t>1523.42</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>2003.04</t>
+          <t>1538.30</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>1994.09</t>
+          <t>1534.89</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>3016.33</t>
+          <t>2385.93</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>3112.39</t>
+          <t>2212.14</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>2569.76</t>
+          <t>2065.96</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>2658.95</t>
+          <t>1929.55</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>2142.89</t>
+          <t>1538.19</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>2133.92</t>
+          <t>1534.80</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>2020.62</t>
+          <t>1552.67</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>2011.71</t>
+          <t>1546.40</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>3110.47</t>
+          <t>2470.70</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>3213.51</t>
+          <t>2269.82</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>2676.29</t>
+          <t>2114.20</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>2757.32</t>
+          <t>2009.69</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>2240.77</t>
+          <t>1603.64</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>2231.98</t>
+          <t>1600.19</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>2110.46</t>
+          <t>1630.04</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>2102.50</t>
+          <t>1623.76</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>3634.91</t>
+          <t>2814.67</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>3752.93</t>
+          <t>2742.12</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>3163.50</t>
+          <t>2601.76</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>3144.88</t>
+          <t>2290.60</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>2570.00</t>
+          <t>1909.76</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>2552.04</t>
+          <t>1901.29</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>2549.11</t>
+          <t>2066.87</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>2549.33</t>
+          <t>2070.86</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2607.24</t>
+          <t>2407.18</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2622.90</t>
+          <t>2286.93</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1220.13</t>
+          <t>915.10</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2301.74</t>
+          <t>1924.10</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1932.02</t>
+          <t>1564.23</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1926.37</t>
+          <t>1559.62</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1897.08</t>
+          <t>1630.26</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1876.48</t>
+          <t>1648.02</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3039.72</t>
+          <t>2884.24</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>3060.77</t>
+          <t>2729.75</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2659.03</t>
+          <t>2404.93</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2597.49</t>
+          <t>2181.10</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2112.96</t>
+          <t>1720.91</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2105.07</t>
+          <t>1711.98</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2072.68</t>
+          <t>1788.60</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2062.53</t>
+          <t>1786.45</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>3028.56</t>
+          <t>2866.99</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>3054.79</t>
+          <t>2724.75</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2598.23</t>
+          <t>2351.96</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>2611.03</t>
+          <t>2182.59</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>2100.66</t>
+          <t>1719.16</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>2093.01</t>
+          <t>1711.31</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2068.79</t>
+          <t>1787.24</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2063.48</t>
+          <t>1781.26</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>3042.26</t>
+          <t>2873.65</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>3066.75</t>
+          <t>2736.04</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>2618.01</t>
+          <t>2352.88</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2632.28</t>
+          <t>2196.62</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>2110.24</t>
+          <t>1729.59</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>2102.37</t>
+          <t>1722.03</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>2071.36</t>
+          <t>1793.20</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>2064.83</t>
+          <t>1787.94</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>3054.42</t>
+          <t>2881.68</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>3086.01</t>
+          <t>2746.94</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>2625.44</t>
+          <t>2360.97</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>2655.13</t>
+          <t>2209.80</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>2121.22</t>
+          <t>1738.34</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>2112.47</t>
+          <t>1731.52</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>2075.59</t>
+          <t>1800.39</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>2067.39</t>
+          <t>1793.92</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>3065.37</t>
+          <t>2889.61</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>3102.46</t>
+          <t>2755.58</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>2638.42</t>
+          <t>2368.48</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>2673.09</t>
+          <t>2222.03</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>2140.90</t>
+          <t>1745.51</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>2133.28</t>
+          <t>1738.10</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>2078.99</t>
+          <t>1806.64</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>2070.56</t>
+          <t>1799.84</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>3072.75</t>
+          <t>2895.91</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>3124.78</t>
+          <t>2764.03</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>2652.85</t>
+          <t>2374.12</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2691.98</t>
+          <t>2232.60</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>2154.33</t>
+          <t>1752.31</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2146.41</t>
+          <t>1745.38</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>2086.76</t>
+          <t>1812.09</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>2078.78</t>
+          <t>1808.53</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>3095.74</t>
+          <t>2908.24</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>3170.14</t>
+          <t>2779.05</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>2672.10</t>
+          <t>2385.97</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>2717.51</t>
+          <t>2249.30</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>2167.83</t>
+          <t>1767.98</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>2160.64</t>
+          <t>1761.12</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>2098.46</t>
+          <t>1826.97</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>2090.51</t>
+          <t>1820.96</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>3205.83</t>
+          <t>3013.34</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>3266.23</t>
+          <t>2878.44</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>2775.67</t>
+          <t>2445.12</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>2814.40</t>
+          <t>2344.39</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>2254.69</t>
+          <t>1848.73</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>2246.90</t>
+          <t>1841.88</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>2176.33</t>
+          <t>1913.23</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>2168.07</t>
+          <t>1907.84</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>3951.16</t>
+          <t>3728.50</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>3824.34</t>
+          <t>3516.98</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>3412.20</t>
+          <t>3082.11</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>3267.42</t>
+          <t>2776.32</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>2594.45</t>
+          <t>2261.08</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>2574.37</t>
+          <t>2238.98</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>2687.14</t>
+          <t>2438.74</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>2693.92</t>
+          <t>2440.91</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2635.28</t>
+          <t>2525.54</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2652.70</t>
+          <t>2334.73</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>860.76</t>
+          <t>731.16</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2313.03</t>
+          <t>1996.74</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1956.31</t>
+          <t>1627.41</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1949.98</t>
+          <t>1623.94</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1901.35</t>
+          <t>1743.36</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1905.32</t>
+          <t>1745.51</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3130.88</t>
+          <t>3033.13</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3113.02</t>
+          <t>2789.81</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2660.25</t>
+          <t>2483.52</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2607.99</t>
+          <t>2263.94</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2145.88</t>
+          <t>1798.29</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2137.75</t>
+          <t>1793.72</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2091.63</t>
+          <t>1918.80</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>2078.68</t>
+          <t>1904.59</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>3129.81</t>
+          <t>3025.46</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>3134.53</t>
+          <t>2818.40</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2646.93</t>
+          <t>2485.85</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>2614.26</t>
+          <t>2245.64</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>2150.92</t>
+          <t>1817.48</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2142.90</t>
+          <t>1802.16</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2092.18</t>
+          <t>1917.42</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2086.85</t>
+          <t>1914.38</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>3150.81</t>
+          <t>3036.65</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>3149.67</t>
+          <t>2860.89</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>2669.13</t>
+          <t>2493.81</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>2634.28</t>
+          <t>2281.54</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>2159.41</t>
+          <t>1877.81</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>2149.10</t>
+          <t>1865.60</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>2108.27</t>
+          <t>1931.35</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>2104.15</t>
+          <t>1926.64</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>3168.62</t>
+          <t>3048.17</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>3166.88</t>
+          <t>2900.28</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>2683.58</t>
+          <t>2504.90</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>2665.56</t>
+          <t>2326.67</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>2176.81</t>
+          <t>1904.25</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>2168.32</t>
+          <t>1894.94</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>2117.74</t>
+          <t>1946.14</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>2113.30</t>
+          <t>1936.75</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>3184.93</t>
+          <t>3060.08</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>3178.85</t>
+          <t>2926.00</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>2698.95</t>
+          <t>2514.69</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>2682.07</t>
+          <t>2361.89</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>2185.32</t>
+          <t>1892.54</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>2177.37</t>
+          <t>1884.58</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>2129.05</t>
+          <t>1955.58</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>2125.06</t>
+          <t>1950.26</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>3201.09</t>
+          <t>3070.19</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>3196.81</t>
+          <t>2944.47</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>2709.73</t>
+          <t>2527.53</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2694.83</t>
+          <t>2403.50</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>2194.39</t>
+          <t>1898.80</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2185.73</t>
+          <t>1890.77</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>2141.02</t>
+          <t>1963.74</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>2137.09</t>
+          <t>1960.65</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>3221.47</t>
+          <t>3086.28</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>3234.58</t>
+          <t>2961.33</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>2729.19</t>
+          <t>2549.65</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>2715.63</t>
+          <t>2437.49</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>2208.03</t>
+          <t>1912.83</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>2199.79</t>
+          <t>1904.62</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>2158.69</t>
+          <t>1961.57</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>2154.36</t>
+          <t>1965.81</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>3318.75</t>
+          <t>3191.58</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>3311.36</t>
+          <t>3063.07</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>2841.55</t>
+          <t>2610.46</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>2819.85</t>
+          <t>2507.33</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>2298.00</t>
+          <t>1993.23</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>2290.43</t>
+          <t>1984.87</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>2245.02</t>
+          <t>2051.51</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>2239.14</t>
+          <t>2043.61</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>4013.06</t>
+          <t>3941.61</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>3898.72</t>
+          <t>3697.35</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>3502.68</t>
+          <t>3254.03</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>3299.83</t>
+          <t>2925.13</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>2683.48</t>
+          <t>2434.31</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>2659.30</t>
+          <t>2408.81</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>2801.27</t>
+          <t>2591.81</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>2806.96</t>
+          <t>2595.66</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2635.92</t>
+          <t>2736.63</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2546.60</t>
+          <t>2289.59</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>642.99</t>
+          <t>509.55</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2203.39</t>
+          <t>1970.65</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1869.66</t>
+          <t>1663.23</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1863.39</t>
+          <t>1657.55</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1885.10</t>
+          <t>1988.54</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1880.07</t>
+          <t>1970.57</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>3132.32</t>
+          <t>3199.07</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3033.34</t>
+          <t>2691.97</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2634.57</t>
+          <t>2742.44</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2522.31</t>
+          <t>2234.35</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2049.14</t>
+          <t>1831.68</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2040.46</t>
+          <t>1824.29</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2076.96</t>
+          <t>2183.12</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2068.09</t>
+          <t>2176.38</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>3134.57</t>
+          <t>3192.20</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>3034.93</t>
+          <t>3001.20</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2636.81</t>
+          <t>2712.32</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>2557.32</t>
+          <t>2203.14</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>2053.93</t>
+          <t>2033.56</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>2044.91</t>
+          <t>1805.21</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2075.89</t>
+          <t>2172.32</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2067.21</t>
+          <t>2166.19</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>3150.77</t>
+          <t>3198.78</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>3049.20</t>
+          <t>3004.70</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>2657.10</t>
+          <t>2713.92</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2585.28</t>
+          <t>2517.92</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>2100.48</t>
+          <t>2033.01</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>2092.65</t>
+          <t>2029.17</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>2087.69</t>
+          <t>2175.46</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>2078.55</t>
+          <t>2169.77</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>3166.92</t>
+          <t>3203.37</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>3062.84</t>
+          <t>3011.69</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>2676.00</t>
+          <t>2718.73</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>2601.84</t>
+          <t>2524.26</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>2109.92</t>
+          <t>2035.97</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>2102.12</t>
+          <t>2030.40</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>2100.63</t>
+          <t>2172.17</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>2091.12</t>
+          <t>2168.27</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>3181.62</t>
+          <t>3207.39</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>3075.02</t>
+          <t>3018.80</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>2692.17</t>
+          <t>2634.16</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>2616.31</t>
+          <t>2532.77</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>2119.23</t>
+          <t>2039.37</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>2110.75</t>
+          <t>2032.96</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>2114.94</t>
+          <t>2130.41</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>2106.51</t>
+          <t>2123.43</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>3195.66</t>
+          <t>3207.05</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>3086.78</t>
+          <t>3027.32</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>2707.36</t>
+          <t>2649.90</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2630.00</t>
+          <t>2542.94</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>2134.11</t>
+          <t>2045.11</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2125.04</t>
+          <t>2038.02</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>2130.80</t>
+          <t>2093.34</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>2122.28</t>
+          <t>2086.09</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>3212.31</t>
+          <t>3210.31</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>3104.98</t>
+          <t>3042.79</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>2726.19</t>
+          <t>2668.37</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>2648.93</t>
+          <t>2560.47</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>2154.64</t>
+          <t>2060.96</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>2145.60</t>
+          <t>2053.70</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>2147.59</t>
+          <t>2107.52</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>2137.06</t>
+          <t>2097.84</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>3300.74</t>
+          <t>3279.50</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>3209.52</t>
+          <t>3145.51</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>2830.32</t>
+          <t>2746.72</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>2733.63</t>
+          <t>2661.53</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>2253.45</t>
+          <t>2149.99</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>2245.50</t>
+          <t>2142.77</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>2240.81</t>
+          <t>2195.39</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>2233.32</t>
+          <t>2186.49</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>4027.50</t>
+          <t>3971.64</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>3773.39</t>
+          <t>3603.45</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>3468.12</t>
+          <t>3381.05</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>3143.56</t>
+          <t>3010.16</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>2582.80</t>
+          <t>2506.23</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>2564.38</t>
+          <t>2487.66</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>2808.52</t>
+          <t>2727.68</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>2815.66</t>
+          <t>2729.54</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2293.40</t>
+          <t>1849.53</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2390.42</t>
+          <t>1928.33</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>317.44</t>
+          <t>244.10</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2073.19</t>
+          <t>1671.27</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1702.07</t>
+          <t>1381.55</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1694.87</t>
+          <t>1376.65</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1606.63</t>
+          <t>1305.14</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1610.25</t>
+          <t>1331.63</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2765.50</t>
+          <t>2219.99</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2854.72</t>
+          <t>2288.41</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2359.12</t>
+          <t>2032.33</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2372.73</t>
+          <t>1914.00</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1894.18</t>
+          <t>1527.07</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1886.07</t>
+          <t>1523.71</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1775.57</t>
+          <t>1440.14</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1771.82</t>
+          <t>1444.32</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2775.42</t>
+          <t>2209.81</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>2863.99</t>
+          <t>2213.91</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2338.28</t>
+          <t>1910.10</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>2391.92</t>
+          <t>1863.56</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>1893.98</t>
+          <t>1488.47</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>1886.63</t>
+          <t>1482.97</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1777.65</t>
+          <t>1431.19</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>1771.21</t>
+          <t>1432.27</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2808.49</t>
+          <t>2216.84</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2900.68</t>
+          <t>2202.39</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>2356.96</t>
+          <t>1886.38</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>2419.58</t>
+          <t>1885.12</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>1907.79</t>
+          <t>1490.15</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>1900.37</t>
+          <t>1484.61</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>1795.68</t>
+          <t>1436.89</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1788.51</t>
+          <t>1433.16</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>2825.21</t>
+          <t>2219.69</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>2921.03</t>
+          <t>2197.59</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>2378.04</t>
+          <t>1890.51</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>2448.89</t>
+          <t>1884.12</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>1916.18</t>
+          <t>1493.45</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>1914.55</t>
+          <t>1488.29</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>1813.55</t>
+          <t>1441.13</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>1806.34</t>
+          <t>1437.06</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>2840.21</t>
+          <t>2224.94</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>2934.76</t>
+          <t>2200.99</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>2399.20</t>
+          <t>1895.22</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>2467.80</t>
+          <t>1884.42</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>1931.08</t>
+          <t>1497.62</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>1923.59</t>
+          <t>1492.82</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>1821.40</t>
+          <t>1445.27</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>1819.38</t>
+          <t>1441.14</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>2858.55</t>
+          <t>2229.80</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>2948.05</t>
+          <t>2204.78</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>2417.97</t>
+          <t>1900.73</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2492.94</t>
+          <t>1886.12</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>1945.76</t>
+          <t>1502.41</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>1938.34</t>
+          <t>1501.71</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>1839.52</t>
+          <t>1449.93</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>1832.82</t>
+          <t>1448.00</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>2884.19</t>
+          <t>2239.41</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>2967.24</t>
+          <t>2212.14</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>2438.41</t>
+          <t>1911.01</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>2516.28</t>
+          <t>1906.01</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>1965.30</t>
+          <t>1515.00</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>1957.32</t>
+          <t>1519.06</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>1853.72</t>
+          <t>1462.47</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>1854.17</t>
+          <t>1458.39</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>2983.44</t>
+          <t>2316.73</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>3074.40</t>
+          <t>2269.82</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>2544.53</t>
+          <t>1958.92</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>2620.82</t>
+          <t>1974.82</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>2059.00</t>
+          <t>1586.70</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>2051.88</t>
+          <t>1583.05</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>1940.78</t>
+          <t>1529.82</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>1933.92</t>
+          <t>1525.69</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>3248.25</t>
+          <t>2648.77</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>3574.34</t>
+          <t>2742.12</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>3071.39</t>
+          <t>2379.00</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>3036.04</t>
+          <t>2290.60</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>2405.18</t>
+          <t>1905.63</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>2386.49</t>
+          <t>1889.98</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>2385.68</t>
+          <t>1848.54</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>2382.53</t>
+          <t>1851.44</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2635.92</t>
+          <t>2736.63</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2652.70</t>
+          <t>2426.26</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1220.13</t>
+          <t>915.10</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2313.03</t>
+          <t>2284.31</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1956.31</t>
+          <t>1720.02</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1949.98</t>
+          <t>1713.52</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1901.35</t>
+          <t>1988.54</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1905.32</t>
+          <t>1970.57</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>3132.32</t>
+          <t>3199.07</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>3144.22</t>
+          <t>2937.63</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2660.25</t>
+          <t>2742.44</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2629.97</t>
+          <t>2384.87</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2145.88</t>
+          <t>2137.48</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2137.75</t>
+          <t>2128.10</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2091.63</t>
+          <t>2183.12</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2078.68</t>
+          <t>2176.38</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>3134.57</t>
+          <t>3192.20</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>3161.46</t>
+          <t>3001.20</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2646.93</t>
+          <t>2712.32</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2636.92</t>
+          <t>2429.83</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>2150.92</t>
+          <t>2033.56</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>2142.90</t>
+          <t>1897.25</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2092.18</t>
+          <t>2172.32</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2086.85</t>
+          <t>2166.19</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>3150.81</t>
+          <t>3198.78</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>3181.69</t>
+          <t>3004.70</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>2669.13</t>
+          <t>2735.79</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2656.63</t>
+          <t>2517.92</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>2177.34</t>
+          <t>2033.01</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>2168.42</t>
+          <t>2029.17</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>2108.27</t>
+          <t>2175.46</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>2104.15</t>
+          <t>2169.77</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>3168.62</t>
+          <t>3203.37</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>3200.17</t>
+          <t>3011.69</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>2683.58</t>
+          <t>2734.51</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>2681.75</t>
+          <t>2524.26</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>2176.81</t>
+          <t>2178.62</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>2168.32</t>
+          <t>2169.14</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>2117.74</t>
+          <t>2172.17</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>2113.30</t>
+          <t>2168.27</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>3184.93</t>
+          <t>3207.39</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>3219.63</t>
+          <t>3035.31</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>2698.95</t>
+          <t>2721.90</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>2697.51</t>
+          <t>2712.20</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>2185.32</t>
+          <t>2183.31</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>2177.37</t>
+          <t>2172.74</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>2129.05</t>
+          <t>2149.34</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>2125.06</t>
+          <t>2141.54</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>3201.09</t>
+          <t>3207.05</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>3229.85</t>
+          <t>3054.30</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>2709.73</t>
+          <t>2719.16</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2711.65</t>
+          <t>2721.89</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>2194.39</t>
+          <t>2189.79</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2185.73</t>
+          <t>2178.85</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>2141.02</t>
+          <t>2150.11</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>2137.09</t>
+          <t>2146.54</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>3221.47</t>
+          <t>3210.31</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>3244.12</t>
+          <t>3248.40</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>2729.19</t>
+          <t>2720.68</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>2732.49</t>
+          <t>2740.51</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>2208.03</t>
+          <t>2205.88</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>2199.79</t>
+          <t>2196.06</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>2158.69</t>
+          <t>2147.56</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>2154.36</t>
+          <t>2154.58</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>3318.75</t>
+          <t>3281.42</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>3346.55</t>
+          <t>3197.77</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>2841.55</t>
+          <t>2752.31</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>2852.21</t>
+          <t>2850.85</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>2298.00</t>
+          <t>2305.50</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>2290.43</t>
+          <t>2294.01</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>2245.02</t>
+          <t>2204.05</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>2239.14</t>
+          <t>2197.88</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>4113.15</t>
+          <t>4091.50</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>3993.50</t>
+          <t>3738.12</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>3502.68</t>
+          <t>3404.69</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>3329.70</t>
+          <t>3220.83</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>2708.43</t>
+          <t>2693.32</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>2683.23</t>
+          <t>2667.01</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>2808.52</t>
+          <t>2745.43</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>2815.66</t>
+          <t>2759.15</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">
